--- a/250723-Zfold7-QCT-SM8750-wireless/250723-Zfold7-QCT-SM8750-wireless_concat.xlsx
+++ b/250723-Zfold7-QCT-SM8750-wireless/250723-Zfold7-QCT-SM8750-wireless_concat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O405"/>
+  <dimension ref="A1:R405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,21 @@
           <t>clean RSRP [dBm]</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>clean RSSI [dBm]</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>clean RSRQ [dB]</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>clean SINR [dB]</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -553,6 +568,15 @@
       <c r="O2" t="n">
         <v>-70.06</v>
       </c>
+      <c r="P2" t="n">
+        <v>-40.07</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R2" t="n">
+        <v>39.09</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -602,6 +626,15 @@
       <c r="O3" t="n">
         <v>-70.06</v>
       </c>
+      <c r="P3" t="n">
+        <v>-40.07</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R3" t="n">
+        <v>39.09</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -651,6 +684,15 @@
       <c r="O4" t="n">
         <v>-70.06</v>
       </c>
+      <c r="P4" t="n">
+        <v>-40.07</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R4" t="n">
+        <v>39.09</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -700,6 +742,15 @@
       <c r="O5" t="n">
         <v>-70.06</v>
       </c>
+      <c r="P5" t="n">
+        <v>-40.07</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R5" t="n">
+        <v>39.09</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -749,6 +800,15 @@
       <c r="O6" t="n">
         <v>-70.06</v>
       </c>
+      <c r="P6" t="n">
+        <v>-40.07</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R6" t="n">
+        <v>39.09</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -798,6 +858,15 @@
       <c r="O7" t="n">
         <v>-70.06</v>
       </c>
+      <c r="P7" t="n">
+        <v>-40.07</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R7" t="n">
+        <v>39.09</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -847,6 +916,15 @@
       <c r="O8" t="n">
         <v>-70.06</v>
       </c>
+      <c r="P8" t="n">
+        <v>-40.07</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R8" t="n">
+        <v>39.09</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -896,6 +974,15 @@
       <c r="O9" t="n">
         <v>-70.06</v>
       </c>
+      <c r="P9" t="n">
+        <v>-40.07</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R9" t="n">
+        <v>39.09</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -945,6 +1032,15 @@
       <c r="O10" t="n">
         <v>-71.06999999999999</v>
       </c>
+      <c r="P10" t="n">
+        <v>-41.09</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R10" t="n">
+        <v>38.79</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -994,6 +1090,15 @@
       <c r="O11" t="n">
         <v>-71.06999999999999</v>
       </c>
+      <c r="P11" t="n">
+        <v>-41.09</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R11" t="n">
+        <v>38.79</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1043,6 +1148,15 @@
       <c r="O12" t="n">
         <v>-71.06999999999999</v>
       </c>
+      <c r="P12" t="n">
+        <v>-41.09</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R12" t="n">
+        <v>38.79</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1092,6 +1206,15 @@
       <c r="O13" t="n">
         <v>-71.06999999999999</v>
       </c>
+      <c r="P13" t="n">
+        <v>-41.09</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R13" t="n">
+        <v>38.79</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1141,6 +1264,15 @@
       <c r="O14" t="n">
         <v>-71.06999999999999</v>
       </c>
+      <c r="P14" t="n">
+        <v>-41.09</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R14" t="n">
+        <v>38.79</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1190,6 +1322,15 @@
       <c r="O15" t="n">
         <v>-71.06999999999999</v>
       </c>
+      <c r="P15" t="n">
+        <v>-41.09</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R15" t="n">
+        <v>38.79</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1239,6 +1380,15 @@
       <c r="O16" t="n">
         <v>-71.06999999999999</v>
       </c>
+      <c r="P16" t="n">
+        <v>-41.09</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R16" t="n">
+        <v>38.79</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1288,6 +1438,15 @@
       <c r="O17" t="n">
         <v>-71.06999999999999</v>
       </c>
+      <c r="P17" t="n">
+        <v>-41.09</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R17" t="n">
+        <v>38.79</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1337,6 +1496,15 @@
       <c r="O18" t="n">
         <v>-72.09</v>
       </c>
+      <c r="P18" t="n">
+        <v>-42.09</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R18" t="n">
+        <v>38.54</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1386,6 +1554,15 @@
       <c r="O19" t="n">
         <v>-72.09</v>
       </c>
+      <c r="P19" t="n">
+        <v>-42.09</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R19" t="n">
+        <v>38.54</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1435,6 +1612,15 @@
       <c r="O20" t="n">
         <v>-72.09</v>
       </c>
+      <c r="P20" t="n">
+        <v>-42.09</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R20" t="n">
+        <v>38.54</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1484,6 +1670,15 @@
       <c r="O21" t="n">
         <v>-72.09</v>
       </c>
+      <c r="P21" t="n">
+        <v>-42.09</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R21" t="n">
+        <v>38.54</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1533,6 +1728,15 @@
       <c r="O22" t="n">
         <v>-72.09</v>
       </c>
+      <c r="P22" t="n">
+        <v>-42.09</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R22" t="n">
+        <v>38.54</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1582,6 +1786,15 @@
       <c r="O23" t="n">
         <v>-72.09</v>
       </c>
+      <c r="P23" t="n">
+        <v>-42.09</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R23" t="n">
+        <v>38.54</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1631,6 +1844,15 @@
       <c r="O24" t="n">
         <v>-72.09</v>
       </c>
+      <c r="P24" t="n">
+        <v>-42.09</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R24" t="n">
+        <v>38.54</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1680,6 +1902,15 @@
       <c r="O25" t="n">
         <v>-72.09</v>
       </c>
+      <c r="P25" t="n">
+        <v>-42.09</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R25" t="n">
+        <v>38.54</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1729,6 +1960,15 @@
       <c r="O26" t="n">
         <v>-73.29000000000001</v>
       </c>
+      <c r="P26" t="n">
+        <v>-43.29</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R26" t="n">
+        <v>38.53</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1778,6 +2018,15 @@
       <c r="O27" t="n">
         <v>-73.29000000000001</v>
       </c>
+      <c r="P27" t="n">
+        <v>-43.29</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R27" t="n">
+        <v>38.53</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1827,6 +2076,15 @@
       <c r="O28" t="n">
         <v>-73.29000000000001</v>
       </c>
+      <c r="P28" t="n">
+        <v>-43.29</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R28" t="n">
+        <v>38.53</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1876,6 +2134,15 @@
       <c r="O29" t="n">
         <v>-73.29000000000001</v>
       </c>
+      <c r="P29" t="n">
+        <v>-43.29</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R29" t="n">
+        <v>38.53</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1925,6 +2192,15 @@
       <c r="O30" t="n">
         <v>-73.29000000000001</v>
       </c>
+      <c r="P30" t="n">
+        <v>-43.29</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R30" t="n">
+        <v>38.53</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1974,6 +2250,15 @@
       <c r="O31" t="n">
         <v>-73.29000000000001</v>
       </c>
+      <c r="P31" t="n">
+        <v>-43.29</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R31" t="n">
+        <v>38.53</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2023,6 +2308,15 @@
       <c r="O32" t="n">
         <v>-73.29000000000001</v>
       </c>
+      <c r="P32" t="n">
+        <v>-43.29</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R32" t="n">
+        <v>38.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2072,6 +2366,15 @@
       <c r="O33" t="n">
         <v>-73.29000000000001</v>
       </c>
+      <c r="P33" t="n">
+        <v>-43.29</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R33" t="n">
+        <v>38.53</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2121,6 +2424,15 @@
       <c r="O34" t="n">
         <v>-74.42</v>
       </c>
+      <c r="P34" t="n">
+        <v>-44.43</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="R34" t="n">
+        <v>38.37</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2170,6 +2482,15 @@
       <c r="O35" t="n">
         <v>-74.42</v>
       </c>
+      <c r="P35" t="n">
+        <v>-44.43</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="R35" t="n">
+        <v>38.37</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2219,6 +2540,15 @@
       <c r="O36" t="n">
         <v>-74.42</v>
       </c>
+      <c r="P36" t="n">
+        <v>-44.43</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="R36" t="n">
+        <v>38.37</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2268,6 +2598,15 @@
       <c r="O37" t="n">
         <v>-74.42</v>
       </c>
+      <c r="P37" t="n">
+        <v>-44.43</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="R37" t="n">
+        <v>38.37</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2317,6 +2656,15 @@
       <c r="O38" t="n">
         <v>-74.42</v>
       </c>
+      <c r="P38" t="n">
+        <v>-44.43</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="R38" t="n">
+        <v>38.37</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2366,6 +2714,15 @@
       <c r="O39" t="n">
         <v>-74.42</v>
       </c>
+      <c r="P39" t="n">
+        <v>-44.43</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="R39" t="n">
+        <v>38.37</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2415,6 +2772,15 @@
       <c r="O40" t="n">
         <v>-74.42</v>
       </c>
+      <c r="P40" t="n">
+        <v>-44.43</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="R40" t="n">
+        <v>38.37</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2464,6 +2830,15 @@
       <c r="O41" t="n">
         <v>-74.42</v>
       </c>
+      <c r="P41" t="n">
+        <v>-44.43</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="R41" t="n">
+        <v>38.37</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2513,6 +2888,15 @@
       <c r="O42" t="n">
         <v>-75.41</v>
       </c>
+      <c r="P42" t="n">
+        <v>-45.41</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R42" t="n">
+        <v>37.87</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2562,6 +2946,15 @@
       <c r="O43" t="n">
         <v>-75.41</v>
       </c>
+      <c r="P43" t="n">
+        <v>-45.41</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R43" t="n">
+        <v>37.87</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2611,6 +3004,15 @@
       <c r="O44" t="n">
         <v>-75.41</v>
       </c>
+      <c r="P44" t="n">
+        <v>-45.41</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R44" t="n">
+        <v>37.87</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2660,6 +3062,15 @@
       <c r="O45" t="n">
         <v>-75.41</v>
       </c>
+      <c r="P45" t="n">
+        <v>-45.41</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R45" t="n">
+        <v>37.87</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2709,6 +3120,15 @@
       <c r="O46" t="n">
         <v>-75.41</v>
       </c>
+      <c r="P46" t="n">
+        <v>-45.41</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R46" t="n">
+        <v>37.87</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2758,6 +3178,15 @@
       <c r="O47" t="n">
         <v>-75.41</v>
       </c>
+      <c r="P47" t="n">
+        <v>-45.41</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R47" t="n">
+        <v>37.87</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2807,6 +3236,15 @@
       <c r="O48" t="n">
         <v>-75.41</v>
       </c>
+      <c r="P48" t="n">
+        <v>-45.41</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R48" t="n">
+        <v>37.87</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2856,6 +3294,15 @@
       <c r="O49" t="n">
         <v>-75.41</v>
       </c>
+      <c r="P49" t="n">
+        <v>-45.41</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R49" t="n">
+        <v>37.87</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2905,6 +3352,15 @@
       <c r="O50" t="n">
         <v>-75.62</v>
       </c>
+      <c r="P50" t="n">
+        <v>-45.63</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R50" t="n">
+        <v>37.58</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2954,6 +3410,15 @@
       <c r="O51" t="n">
         <v>-75.62</v>
       </c>
+      <c r="P51" t="n">
+        <v>-45.63</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R51" t="n">
+        <v>37.58</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3003,6 +3468,15 @@
       <c r="O52" t="n">
         <v>-75.62</v>
       </c>
+      <c r="P52" t="n">
+        <v>-45.63</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R52" t="n">
+        <v>37.58</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3052,6 +3526,15 @@
       <c r="O53" t="n">
         <v>-75.62</v>
       </c>
+      <c r="P53" t="n">
+        <v>-45.63</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R53" t="n">
+        <v>37.58</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3101,6 +3584,15 @@
       <c r="O54" t="n">
         <v>-75.62</v>
       </c>
+      <c r="P54" t="n">
+        <v>-45.63</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R54" t="n">
+        <v>37.58</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3150,6 +3642,15 @@
       <c r="O55" t="n">
         <v>-75.62</v>
       </c>
+      <c r="P55" t="n">
+        <v>-45.63</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R55" t="n">
+        <v>37.58</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3199,6 +3700,15 @@
       <c r="O56" t="n">
         <v>-75.62</v>
       </c>
+      <c r="P56" t="n">
+        <v>-45.63</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R56" t="n">
+        <v>37.58</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3248,6 +3758,15 @@
       <c r="O57" t="n">
         <v>-75.62</v>
       </c>
+      <c r="P57" t="n">
+        <v>-45.63</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R57" t="n">
+        <v>37.58</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3297,6 +3816,15 @@
       <c r="O58" t="n">
         <v>-76.34</v>
       </c>
+      <c r="P58" t="n">
+        <v>-46.34</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R58" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3346,6 +3874,15 @@
       <c r="O59" t="n">
         <v>-76.34</v>
       </c>
+      <c r="P59" t="n">
+        <v>-46.34</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R59" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3395,6 +3932,15 @@
       <c r="O60" t="n">
         <v>-76.34</v>
       </c>
+      <c r="P60" t="n">
+        <v>-46.34</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R60" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3444,6 +3990,15 @@
       <c r="O61" t="n">
         <v>-76.34</v>
       </c>
+      <c r="P61" t="n">
+        <v>-46.34</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R61" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3493,6 +4048,15 @@
       <c r="O62" t="n">
         <v>-76.34</v>
       </c>
+      <c r="P62" t="n">
+        <v>-46.34</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R62" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3542,6 +4106,15 @@
       <c r="O63" t="n">
         <v>-76.34</v>
       </c>
+      <c r="P63" t="n">
+        <v>-46.34</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R63" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3591,6 +4164,15 @@
       <c r="O64" t="n">
         <v>-76.34</v>
       </c>
+      <c r="P64" t="n">
+        <v>-46.34</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R64" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3640,6 +4222,15 @@
       <c r="O65" t="n">
         <v>-76.34</v>
       </c>
+      <c r="P65" t="n">
+        <v>-46.34</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R65" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3689,6 +4280,15 @@
       <c r="O66" t="n">
         <v>-77.33</v>
       </c>
+      <c r="P66" t="n">
+        <v>-47.34</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R66" t="n">
+        <v>36.4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3738,6 +4338,15 @@
       <c r="O67" t="n">
         <v>-77.33</v>
       </c>
+      <c r="P67" t="n">
+        <v>-47.34</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R67" t="n">
+        <v>36.4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3787,6 +4396,15 @@
       <c r="O68" t="n">
         <v>-77.33</v>
       </c>
+      <c r="P68" t="n">
+        <v>-47.34</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R68" t="n">
+        <v>36.4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3836,6 +4454,15 @@
       <c r="O69" t="n">
         <v>-77.33</v>
       </c>
+      <c r="P69" t="n">
+        <v>-47.34</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R69" t="n">
+        <v>36.4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3885,6 +4512,15 @@
       <c r="O70" t="n">
         <v>-77.33</v>
       </c>
+      <c r="P70" t="n">
+        <v>-47.34</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R70" t="n">
+        <v>36.4</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3934,6 +4570,15 @@
       <c r="O71" t="n">
         <v>-77.33</v>
       </c>
+      <c r="P71" t="n">
+        <v>-47.34</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R71" t="n">
+        <v>36.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3983,6 +4628,15 @@
       <c r="O72" t="n">
         <v>-77.33</v>
       </c>
+      <c r="P72" t="n">
+        <v>-47.34</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R72" t="n">
+        <v>36.4</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4032,6 +4686,15 @@
       <c r="O73" t="n">
         <v>-77.33</v>
       </c>
+      <c r="P73" t="n">
+        <v>-47.34</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R73" t="n">
+        <v>36.4</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4081,6 +4744,15 @@
       <c r="O74" t="n">
         <v>-78.34</v>
       </c>
+      <c r="P74" t="n">
+        <v>-48.34</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R74" t="n">
+        <v>35.79</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4130,6 +4802,15 @@
       <c r="O75" t="n">
         <v>-78.34</v>
       </c>
+      <c r="P75" t="n">
+        <v>-48.34</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R75" t="n">
+        <v>35.79</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4179,6 +4860,15 @@
       <c r="O76" t="n">
         <v>-78.34</v>
       </c>
+      <c r="P76" t="n">
+        <v>-48.34</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R76" t="n">
+        <v>35.79</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4228,6 +4918,15 @@
       <c r="O77" t="n">
         <v>-78.34</v>
       </c>
+      <c r="P77" t="n">
+        <v>-48.34</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R77" t="n">
+        <v>35.79</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4277,6 +4976,15 @@
       <c r="O78" t="n">
         <v>-78.34</v>
       </c>
+      <c r="P78" t="n">
+        <v>-48.34</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R78" t="n">
+        <v>35.79</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4326,6 +5034,15 @@
       <c r="O79" t="n">
         <v>-78.34</v>
       </c>
+      <c r="P79" t="n">
+        <v>-48.34</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R79" t="n">
+        <v>35.79</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4375,6 +5092,15 @@
       <c r="O80" t="n">
         <v>-78.34</v>
       </c>
+      <c r="P80" t="n">
+        <v>-48.34</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R80" t="n">
+        <v>35.79</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4424,6 +5150,15 @@
       <c r="O81" t="n">
         <v>-78.34</v>
       </c>
+      <c r="P81" t="n">
+        <v>-48.34</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R81" t="n">
+        <v>35.79</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4473,6 +5208,15 @@
       <c r="O82" t="n">
         <v>-79.33</v>
       </c>
+      <c r="P82" t="n">
+        <v>-49.37</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>-9.98</v>
+      </c>
+      <c r="R82" t="n">
+        <v>35.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4522,6 +5266,15 @@
       <c r="O83" t="n">
         <v>-79.33</v>
       </c>
+      <c r="P83" t="n">
+        <v>-49.37</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>-9.98</v>
+      </c>
+      <c r="R83" t="n">
+        <v>35.2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4571,6 +5324,15 @@
       <c r="O84" t="n">
         <v>-79.33</v>
       </c>
+      <c r="P84" t="n">
+        <v>-49.37</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>-9.98</v>
+      </c>
+      <c r="R84" t="n">
+        <v>35.2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4620,6 +5382,15 @@
       <c r="O85" t="n">
         <v>-79.33</v>
       </c>
+      <c r="P85" t="n">
+        <v>-49.37</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>-9.98</v>
+      </c>
+      <c r="R85" t="n">
+        <v>35.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4669,6 +5440,15 @@
       <c r="O86" t="n">
         <v>-79.33</v>
       </c>
+      <c r="P86" t="n">
+        <v>-49.37</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>-9.98</v>
+      </c>
+      <c r="R86" t="n">
+        <v>35.2</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4718,6 +5498,15 @@
       <c r="O87" t="n">
         <v>-79.33</v>
       </c>
+      <c r="P87" t="n">
+        <v>-49.37</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>-9.98</v>
+      </c>
+      <c r="R87" t="n">
+        <v>35.2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4767,6 +5556,15 @@
       <c r="O88" t="n">
         <v>-79.33</v>
       </c>
+      <c r="P88" t="n">
+        <v>-49.37</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>-9.98</v>
+      </c>
+      <c r="R88" t="n">
+        <v>35.2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4816,6 +5614,15 @@
       <c r="O89" t="n">
         <v>-79.33</v>
       </c>
+      <c r="P89" t="n">
+        <v>-49.37</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>-9.98</v>
+      </c>
+      <c r="R89" t="n">
+        <v>35.2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4865,6 +5672,15 @@
       <c r="O90" t="n">
         <v>-80.33</v>
       </c>
+      <c r="P90" t="n">
+        <v>-50.34</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="R90" t="n">
+        <v>34.58</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4914,6 +5730,15 @@
       <c r="O91" t="n">
         <v>-80.33</v>
       </c>
+      <c r="P91" t="n">
+        <v>-50.34</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="R91" t="n">
+        <v>34.58</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4963,6 +5788,15 @@
       <c r="O92" t="n">
         <v>-80.33</v>
       </c>
+      <c r="P92" t="n">
+        <v>-50.34</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="R92" t="n">
+        <v>34.58</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5012,6 +5846,15 @@
       <c r="O93" t="n">
         <v>-80.33</v>
       </c>
+      <c r="P93" t="n">
+        <v>-50.34</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="R93" t="n">
+        <v>34.58</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5061,6 +5904,15 @@
       <c r="O94" t="n">
         <v>-80.33</v>
       </c>
+      <c r="P94" t="n">
+        <v>-50.34</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="R94" t="n">
+        <v>34.58</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5110,6 +5962,15 @@
       <c r="O95" t="n">
         <v>-80.33</v>
       </c>
+      <c r="P95" t="n">
+        <v>-50.34</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="R95" t="n">
+        <v>34.58</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5159,6 +6020,15 @@
       <c r="O96" t="n">
         <v>-80.33</v>
       </c>
+      <c r="P96" t="n">
+        <v>-50.34</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="R96" t="n">
+        <v>34.58</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5208,6 +6078,15 @@
       <c r="O97" t="n">
         <v>-80.33</v>
       </c>
+      <c r="P97" t="n">
+        <v>-50.34</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="R97" t="n">
+        <v>34.58</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5257,6 +6136,15 @@
       <c r="O98" t="n">
         <v>-81.33</v>
       </c>
+      <c r="P98" t="n">
+        <v>-51.33</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R98" t="n">
+        <v>33.84</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5306,6 +6194,15 @@
       <c r="O99" t="n">
         <v>-81.33</v>
       </c>
+      <c r="P99" t="n">
+        <v>-51.33</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R99" t="n">
+        <v>33.84</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5355,6 +6252,15 @@
       <c r="O100" t="n">
         <v>-81.33</v>
       </c>
+      <c r="P100" t="n">
+        <v>-51.33</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R100" t="n">
+        <v>33.84</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5404,6 +6310,15 @@
       <c r="O101" t="n">
         <v>-81.33</v>
       </c>
+      <c r="P101" t="n">
+        <v>-51.33</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R101" t="n">
+        <v>33.84</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5452,6 +6367,15 @@
       </c>
       <c r="O102" t="n">
         <v>-81.33</v>
+      </c>
+      <c r="P102" t="n">
+        <v>-51.33</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R102" t="n">
+        <v>33.84</v>
       </c>
     </row>
     <row r="103">
@@ -5502,6 +6426,15 @@
       <c r="O103" t="n">
         <v>-81.33</v>
       </c>
+      <c r="P103" t="n">
+        <v>-51.33</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R103" t="n">
+        <v>33.84</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5551,6 +6484,15 @@
       <c r="O104" t="n">
         <v>-81.33</v>
       </c>
+      <c r="P104" t="n">
+        <v>-51.33</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R104" t="n">
+        <v>33.84</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5600,6 +6542,15 @@
       <c r="O105" t="n">
         <v>-81.33</v>
       </c>
+      <c r="P105" t="n">
+        <v>-51.33</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R105" t="n">
+        <v>33.84</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -5649,6 +6600,15 @@
       <c r="O106" t="n">
         <v>-82.33</v>
       </c>
+      <c r="P106" t="n">
+        <v>-52.33</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R106" t="n">
+        <v>33.02</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -5698,6 +6658,15 @@
       <c r="O107" t="n">
         <v>-82.33</v>
       </c>
+      <c r="P107" t="n">
+        <v>-52.33</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R107" t="n">
+        <v>33.02</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -5747,6 +6716,15 @@
       <c r="O108" t="n">
         <v>-82.33</v>
       </c>
+      <c r="P108" t="n">
+        <v>-52.33</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R108" t="n">
+        <v>33.02</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -5796,6 +6774,15 @@
       <c r="O109" t="n">
         <v>-82.33</v>
       </c>
+      <c r="P109" t="n">
+        <v>-52.33</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R109" t="n">
+        <v>33.02</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5845,6 +6832,15 @@
       <c r="O110" t="n">
         <v>-82.33</v>
       </c>
+      <c r="P110" t="n">
+        <v>-52.33</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R110" t="n">
+        <v>33.02</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5894,6 +6890,15 @@
       <c r="O111" t="n">
         <v>-82.33</v>
       </c>
+      <c r="P111" t="n">
+        <v>-52.33</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R111" t="n">
+        <v>33.02</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5943,6 +6948,15 @@
       <c r="O112" t="n">
         <v>-82.33</v>
       </c>
+      <c r="P112" t="n">
+        <v>-52.33</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R112" t="n">
+        <v>33.02</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5992,6 +7006,15 @@
       <c r="O113" t="n">
         <v>-82.33</v>
       </c>
+      <c r="P113" t="n">
+        <v>-52.33</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R113" t="n">
+        <v>33.02</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6041,6 +7064,15 @@
       <c r="O114" t="n">
         <v>-83.33</v>
       </c>
+      <c r="P114" t="n">
+        <v>-53.33</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R114" t="n">
+        <v>32.27</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6090,6 +7122,15 @@
       <c r="O115" t="n">
         <v>-83.33</v>
       </c>
+      <c r="P115" t="n">
+        <v>-53.33</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R115" t="n">
+        <v>32.27</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6139,6 +7180,15 @@
       <c r="O116" t="n">
         <v>-83.33</v>
       </c>
+      <c r="P116" t="n">
+        <v>-53.33</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R116" t="n">
+        <v>32.27</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6188,6 +7238,15 @@
       <c r="O117" t="n">
         <v>-83.33</v>
       </c>
+      <c r="P117" t="n">
+        <v>-53.33</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R117" t="n">
+        <v>32.27</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6237,6 +7296,15 @@
       <c r="O118" t="n">
         <v>-83.33</v>
       </c>
+      <c r="P118" t="n">
+        <v>-53.33</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R118" t="n">
+        <v>32.27</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6286,6 +7354,15 @@
       <c r="O119" t="n">
         <v>-83.33</v>
       </c>
+      <c r="P119" t="n">
+        <v>-53.33</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R119" t="n">
+        <v>32.27</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6335,6 +7412,15 @@
       <c r="O120" t="n">
         <v>-83.33</v>
       </c>
+      <c r="P120" t="n">
+        <v>-53.33</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R120" t="n">
+        <v>32.27</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6384,6 +7470,15 @@
       <c r="O121" t="n">
         <v>-83.33</v>
       </c>
+      <c r="P121" t="n">
+        <v>-53.33</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R121" t="n">
+        <v>32.27</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6433,6 +7528,15 @@
       <c r="O122" t="n">
         <v>-84.33</v>
       </c>
+      <c r="P122" t="n">
+        <v>-54.33</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R122" t="n">
+        <v>31.5</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6482,6 +7586,15 @@
       <c r="O123" t="n">
         <v>-84.33</v>
       </c>
+      <c r="P123" t="n">
+        <v>-54.33</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R123" t="n">
+        <v>31.5</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -6531,6 +7644,15 @@
       <c r="O124" t="n">
         <v>-84.33</v>
       </c>
+      <c r="P124" t="n">
+        <v>-54.33</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R124" t="n">
+        <v>31.5</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -6580,6 +7702,15 @@
       <c r="O125" t="n">
         <v>-84.33</v>
       </c>
+      <c r="P125" t="n">
+        <v>-54.33</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R125" t="n">
+        <v>31.5</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -6629,6 +7760,15 @@
       <c r="O126" t="n">
         <v>-84.33</v>
       </c>
+      <c r="P126" t="n">
+        <v>-54.33</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R126" t="n">
+        <v>31.5</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -6678,6 +7818,15 @@
       <c r="O127" t="n">
         <v>-84.33</v>
       </c>
+      <c r="P127" t="n">
+        <v>-54.33</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R127" t="n">
+        <v>31.5</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -6727,6 +7876,15 @@
       <c r="O128" t="n">
         <v>-84.33</v>
       </c>
+      <c r="P128" t="n">
+        <v>-54.33</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R128" t="n">
+        <v>31.5</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -6776,6 +7934,15 @@
       <c r="O129" t="n">
         <v>-84.33</v>
       </c>
+      <c r="P129" t="n">
+        <v>-54.33</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R129" t="n">
+        <v>31.5</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -6825,6 +7992,15 @@
       <c r="O130" t="n">
         <v>-85.31999999999999</v>
       </c>
+      <c r="P130" t="n">
+        <v>-55.32</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R130" t="n">
+        <v>30.76</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -6874,6 +8050,15 @@
       <c r="O131" t="n">
         <v>-85.31999999999999</v>
       </c>
+      <c r="P131" t="n">
+        <v>-55.32</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R131" t="n">
+        <v>30.76</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -6923,6 +8108,15 @@
       <c r="O132" t="n">
         <v>-85.31999999999999</v>
       </c>
+      <c r="P132" t="n">
+        <v>-55.32</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R132" t="n">
+        <v>30.76</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -6972,6 +8166,15 @@
       <c r="O133" t="n">
         <v>-85.31999999999999</v>
       </c>
+      <c r="P133" t="n">
+        <v>-55.32</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R133" t="n">
+        <v>30.76</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7021,6 +8224,15 @@
       <c r="O134" t="n">
         <v>-85.31999999999999</v>
       </c>
+      <c r="P134" t="n">
+        <v>-55.32</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R134" t="n">
+        <v>30.76</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7070,6 +8282,15 @@
       <c r="O135" t="n">
         <v>-85.31999999999999</v>
       </c>
+      <c r="P135" t="n">
+        <v>-55.32</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R135" t="n">
+        <v>30.76</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7119,6 +8340,15 @@
       <c r="O136" t="n">
         <v>-85.31999999999999</v>
       </c>
+      <c r="P136" t="n">
+        <v>-55.32</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R136" t="n">
+        <v>30.76</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7168,6 +8398,15 @@
       <c r="O137" t="n">
         <v>-85.31999999999999</v>
       </c>
+      <c r="P137" t="n">
+        <v>-55.32</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R137" t="n">
+        <v>30.76</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7217,6 +8456,15 @@
       <c r="O138" t="n">
         <v>-86.23</v>
       </c>
+      <c r="P138" t="n">
+        <v>-56.23</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R138" t="n">
+        <v>30.01</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7266,6 +8514,15 @@
       <c r="O139" t="n">
         <v>-86.23</v>
       </c>
+      <c r="P139" t="n">
+        <v>-56.23</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R139" t="n">
+        <v>30.01</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7315,6 +8572,15 @@
       <c r="O140" t="n">
         <v>-86.23</v>
       </c>
+      <c r="P140" t="n">
+        <v>-56.23</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R140" t="n">
+        <v>30.01</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7364,6 +8630,15 @@
       <c r="O141" t="n">
         <v>-86.23</v>
       </c>
+      <c r="P141" t="n">
+        <v>-56.23</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R141" t="n">
+        <v>30.01</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7413,6 +8688,15 @@
       <c r="O142" t="n">
         <v>-86.23</v>
       </c>
+      <c r="P142" t="n">
+        <v>-56.23</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R142" t="n">
+        <v>30.01</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -7462,6 +8746,15 @@
       <c r="O143" t="n">
         <v>-86.23</v>
       </c>
+      <c r="P143" t="n">
+        <v>-56.23</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R143" t="n">
+        <v>30.01</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -7511,6 +8804,15 @@
       <c r="O144" t="n">
         <v>-86.23</v>
       </c>
+      <c r="P144" t="n">
+        <v>-56.23</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R144" t="n">
+        <v>30.01</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -7560,6 +8862,15 @@
       <c r="O145" t="n">
         <v>-86.23</v>
       </c>
+      <c r="P145" t="n">
+        <v>-56.23</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R145" t="n">
+        <v>30.01</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -7609,6 +8920,15 @@
       <c r="O146" t="n">
         <v>-87.2</v>
       </c>
+      <c r="P146" t="n">
+        <v>-57.2</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R146" t="n">
+        <v>29.19</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -7658,6 +8978,15 @@
       <c r="O147" t="n">
         <v>-87.2</v>
       </c>
+      <c r="P147" t="n">
+        <v>-57.2</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R147" t="n">
+        <v>29.19</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -7707,6 +9036,15 @@
       <c r="O148" t="n">
         <v>-87.2</v>
       </c>
+      <c r="P148" t="n">
+        <v>-57.2</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R148" t="n">
+        <v>29.19</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -7756,6 +9094,15 @@
       <c r="O149" t="n">
         <v>-87.2</v>
       </c>
+      <c r="P149" t="n">
+        <v>-57.2</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R149" t="n">
+        <v>29.19</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -7805,6 +9152,15 @@
       <c r="O150" t="n">
         <v>-87.2</v>
       </c>
+      <c r="P150" t="n">
+        <v>-57.2</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R150" t="n">
+        <v>29.19</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -7854,6 +9210,15 @@
       <c r="O151" t="n">
         <v>-87.2</v>
       </c>
+      <c r="P151" t="n">
+        <v>-57.2</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R151" t="n">
+        <v>29.19</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -7903,6 +9268,15 @@
       <c r="O152" t="n">
         <v>-87.2</v>
       </c>
+      <c r="P152" t="n">
+        <v>-57.2</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R152" t="n">
+        <v>29.19</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -7952,6 +9326,15 @@
       <c r="O153" t="n">
         <v>-87.2</v>
       </c>
+      <c r="P153" t="n">
+        <v>-57.2</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R153" t="n">
+        <v>29.19</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -8001,6 +9384,15 @@
       <c r="O154" t="n">
         <v>-88.2</v>
       </c>
+      <c r="P154" t="n">
+        <v>-58.2</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R154" t="n">
+        <v>28.26</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -8050,6 +9442,15 @@
       <c r="O155" t="n">
         <v>-88.2</v>
       </c>
+      <c r="P155" t="n">
+        <v>-58.2</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R155" t="n">
+        <v>28.26</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -8099,6 +9500,15 @@
       <c r="O156" t="n">
         <v>-88.2</v>
       </c>
+      <c r="P156" t="n">
+        <v>-58.2</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R156" t="n">
+        <v>28.26</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -8148,6 +9558,15 @@
       <c r="O157" t="n">
         <v>-88.2</v>
       </c>
+      <c r="P157" t="n">
+        <v>-58.2</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R157" t="n">
+        <v>28.26</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -8197,6 +9616,15 @@
       <c r="O158" t="n">
         <v>-88.2</v>
       </c>
+      <c r="P158" t="n">
+        <v>-58.2</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R158" t="n">
+        <v>28.26</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -8246,6 +9674,15 @@
       <c r="O159" t="n">
         <v>-88.2</v>
       </c>
+      <c r="P159" t="n">
+        <v>-58.2</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R159" t="n">
+        <v>28.26</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -8295,6 +9732,15 @@
       <c r="O160" t="n">
         <v>-88.2</v>
       </c>
+      <c r="P160" t="n">
+        <v>-58.2</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R160" t="n">
+        <v>28.26</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -8344,6 +9790,15 @@
       <c r="O161" t="n">
         <v>-88.2</v>
       </c>
+      <c r="P161" t="n">
+        <v>-58.2</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R161" t="n">
+        <v>28.26</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -8393,6 +9848,15 @@
       <c r="O162" t="n">
         <v>-89.66</v>
       </c>
+      <c r="P162" t="n">
+        <v>-59.63</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R162" t="n">
+        <v>27.73</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -8442,6 +9906,15 @@
       <c r="O163" t="n">
         <v>-89.66</v>
       </c>
+      <c r="P163" t="n">
+        <v>-59.63</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R163" t="n">
+        <v>27.73</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -8491,6 +9964,15 @@
       <c r="O164" t="n">
         <v>-89.66</v>
       </c>
+      <c r="P164" t="n">
+        <v>-59.63</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R164" t="n">
+        <v>27.73</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -8540,6 +10022,15 @@
       <c r="O165" t="n">
         <v>-89.66</v>
       </c>
+      <c r="P165" t="n">
+        <v>-59.63</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R165" t="n">
+        <v>27.73</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -8589,6 +10080,15 @@
       <c r="O166" t="n">
         <v>-89.66</v>
       </c>
+      <c r="P166" t="n">
+        <v>-59.63</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R166" t="n">
+        <v>27.73</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -8638,6 +10138,15 @@
       <c r="O167" t="n">
         <v>-89.66</v>
       </c>
+      <c r="P167" t="n">
+        <v>-59.63</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R167" t="n">
+        <v>27.73</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -8687,6 +10196,15 @@
       <c r="O168" t="n">
         <v>-89.66</v>
       </c>
+      <c r="P168" t="n">
+        <v>-59.63</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R168" t="n">
+        <v>27.73</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -8736,6 +10254,15 @@
       <c r="O169" t="n">
         <v>-89.66</v>
       </c>
+      <c r="P169" t="n">
+        <v>-59.63</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R169" t="n">
+        <v>27.73</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -8785,6 +10312,15 @@
       <c r="O170" t="n">
         <v>-90.8</v>
       </c>
+      <c r="P170" t="n">
+        <v>-60.76</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R170" t="n">
+        <v>27.01</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -8834,6 +10370,15 @@
       <c r="O171" t="n">
         <v>-90.8</v>
       </c>
+      <c r="P171" t="n">
+        <v>-60.76</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R171" t="n">
+        <v>27.01</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -8883,6 +10428,15 @@
       <c r="O172" t="n">
         <v>-90.8</v>
       </c>
+      <c r="P172" t="n">
+        <v>-60.76</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R172" t="n">
+        <v>27.01</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -8932,6 +10486,15 @@
       <c r="O173" t="n">
         <v>-90.8</v>
       </c>
+      <c r="P173" t="n">
+        <v>-60.76</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R173" t="n">
+        <v>27.01</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -8981,6 +10544,15 @@
       <c r="O174" t="n">
         <v>-90.8</v>
       </c>
+      <c r="P174" t="n">
+        <v>-60.76</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R174" t="n">
+        <v>27.01</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -9030,6 +10602,15 @@
       <c r="O175" t="n">
         <v>-90.8</v>
       </c>
+      <c r="P175" t="n">
+        <v>-60.76</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R175" t="n">
+        <v>27.01</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -9079,6 +10660,15 @@
       <c r="O176" t="n">
         <v>-90.8</v>
       </c>
+      <c r="P176" t="n">
+        <v>-60.76</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R176" t="n">
+        <v>27.01</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -9128,6 +10718,15 @@
       <c r="O177" t="n">
         <v>-90.8</v>
       </c>
+      <c r="P177" t="n">
+        <v>-60.76</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R177" t="n">
+        <v>27.01</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -9177,6 +10776,15 @@
       <c r="O178" t="n">
         <v>-91.8</v>
       </c>
+      <c r="P178" t="n">
+        <v>-61.78</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R178" t="n">
+        <v>26.1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -9226,6 +10834,15 @@
       <c r="O179" t="n">
         <v>-91.8</v>
       </c>
+      <c r="P179" t="n">
+        <v>-61.78</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R179" t="n">
+        <v>26.1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -9275,6 +10892,15 @@
       <c r="O180" t="n">
         <v>-91.8</v>
       </c>
+      <c r="P180" t="n">
+        <v>-61.78</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R180" t="n">
+        <v>26.1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -9324,6 +10950,15 @@
       <c r="O181" t="n">
         <v>-91.8</v>
       </c>
+      <c r="P181" t="n">
+        <v>-61.78</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R181" t="n">
+        <v>26.1</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -9373,6 +11008,15 @@
       <c r="O182" t="n">
         <v>-91.8</v>
       </c>
+      <c r="P182" t="n">
+        <v>-61.78</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R182" t="n">
+        <v>26.1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -9422,6 +11066,15 @@
       <c r="O183" t="n">
         <v>-91.8</v>
       </c>
+      <c r="P183" t="n">
+        <v>-61.78</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R183" t="n">
+        <v>26.1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -9471,6 +11124,15 @@
       <c r="O184" t="n">
         <v>-91.8</v>
       </c>
+      <c r="P184" t="n">
+        <v>-61.78</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R184" t="n">
+        <v>26.1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -9520,6 +11182,15 @@
       <c r="O185" t="n">
         <v>-91.8</v>
       </c>
+      <c r="P185" t="n">
+        <v>-61.78</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R185" t="n">
+        <v>26.1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -9569,6 +11240,15 @@
       <c r="O186" t="n">
         <v>-92.8</v>
       </c>
+      <c r="P186" t="n">
+        <v>-62.76</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R186" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -9618,6 +11298,15 @@
       <c r="O187" t="n">
         <v>-92.8</v>
       </c>
+      <c r="P187" t="n">
+        <v>-62.76</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R187" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -9667,6 +11356,15 @@
       <c r="O188" t="n">
         <v>-92.8</v>
       </c>
+      <c r="P188" t="n">
+        <v>-62.76</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R188" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -9716,6 +11414,15 @@
       <c r="O189" t="n">
         <v>-92.8</v>
       </c>
+      <c r="P189" t="n">
+        <v>-62.76</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R189" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -9765,6 +11472,15 @@
       <c r="O190" t="n">
         <v>-92.8</v>
       </c>
+      <c r="P190" t="n">
+        <v>-62.76</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R190" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -9814,6 +11530,15 @@
       <c r="O191" t="n">
         <v>-92.8</v>
       </c>
+      <c r="P191" t="n">
+        <v>-62.76</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R191" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -9863,6 +11588,15 @@
       <c r="O192" t="n">
         <v>-92.8</v>
       </c>
+      <c r="P192" t="n">
+        <v>-62.76</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R192" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -9912,6 +11646,15 @@
       <c r="O193" t="n">
         <v>-92.8</v>
       </c>
+      <c r="P193" t="n">
+        <v>-62.76</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R193" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -9961,6 +11704,15 @@
       <c r="O194" t="n">
         <v>-93.8</v>
       </c>
+      <c r="P194" t="n">
+        <v>-63.76</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R194" t="n">
+        <v>24.59</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -10010,6 +11762,15 @@
       <c r="O195" t="n">
         <v>-93.8</v>
       </c>
+      <c r="P195" t="n">
+        <v>-63.76</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R195" t="n">
+        <v>24.59</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -10059,6 +11820,15 @@
       <c r="O196" t="n">
         <v>-93.8</v>
       </c>
+      <c r="P196" t="n">
+        <v>-63.76</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R196" t="n">
+        <v>24.59</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -10108,6 +11878,15 @@
       <c r="O197" t="n">
         <v>-93.8</v>
       </c>
+      <c r="P197" t="n">
+        <v>-63.76</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R197" t="n">
+        <v>24.59</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -10157,6 +11936,15 @@
       <c r="O198" t="n">
         <v>-93.8</v>
       </c>
+      <c r="P198" t="n">
+        <v>-63.76</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R198" t="n">
+        <v>24.59</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -10206,6 +11994,15 @@
       <c r="O199" t="n">
         <v>-93.8</v>
       </c>
+      <c r="P199" t="n">
+        <v>-63.76</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R199" t="n">
+        <v>24.59</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -10255,6 +12052,15 @@
       <c r="O200" t="n">
         <v>-93.8</v>
       </c>
+      <c r="P200" t="n">
+        <v>-63.76</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R200" t="n">
+        <v>24.59</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -10304,6 +12110,15 @@
       <c r="O201" t="n">
         <v>-93.8</v>
       </c>
+      <c r="P201" t="n">
+        <v>-63.76</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R201" t="n">
+        <v>24.59</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -10353,6 +12168,15 @@
       <c r="O202" t="n">
         <v>-94.76000000000001</v>
       </c>
+      <c r="P202" t="n">
+        <v>-64.75</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R202" t="n">
+        <v>23.74</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -10402,6 +12226,15 @@
       <c r="O203" t="n">
         <v>-94.76000000000001</v>
       </c>
+      <c r="P203" t="n">
+        <v>-64.75</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R203" t="n">
+        <v>23.74</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -10451,6 +12284,15 @@
       <c r="O204" t="n">
         <v>-94.76000000000001</v>
       </c>
+      <c r="P204" t="n">
+        <v>-64.75</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R204" t="n">
+        <v>23.74</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -10500,6 +12342,15 @@
       <c r="O205" t="n">
         <v>-94.76000000000001</v>
       </c>
+      <c r="P205" t="n">
+        <v>-64.75</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R205" t="n">
+        <v>23.74</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -10549,6 +12400,15 @@
       <c r="O206" t="n">
         <v>-94.76000000000001</v>
       </c>
+      <c r="P206" t="n">
+        <v>-64.75</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R206" t="n">
+        <v>23.74</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -10598,6 +12458,15 @@
       <c r="O207" t="n">
         <v>-94.76000000000001</v>
       </c>
+      <c r="P207" t="n">
+        <v>-64.75</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R207" t="n">
+        <v>23.74</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -10647,6 +12516,15 @@
       <c r="O208" t="n">
         <v>-94.76000000000001</v>
       </c>
+      <c r="P208" t="n">
+        <v>-64.75</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R208" t="n">
+        <v>23.74</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -10696,6 +12574,15 @@
       <c r="O209" t="n">
         <v>-94.76000000000001</v>
       </c>
+      <c r="P209" t="n">
+        <v>-64.75</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R209" t="n">
+        <v>23.74</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -10745,6 +12632,15 @@
       <c r="O210" t="n">
         <v>-95.77</v>
       </c>
+      <c r="P210" t="n">
+        <v>-65.75</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>-10.01</v>
+      </c>
+      <c r="R210" t="n">
+        <v>22.74</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -10794,6 +12690,15 @@
       <c r="O211" t="n">
         <v>-95.77</v>
       </c>
+      <c r="P211" t="n">
+        <v>-65.75</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>-10.01</v>
+      </c>
+      <c r="R211" t="n">
+        <v>22.74</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -10843,6 +12748,15 @@
       <c r="O212" t="n">
         <v>-95.77</v>
       </c>
+      <c r="P212" t="n">
+        <v>-65.75</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>-10.01</v>
+      </c>
+      <c r="R212" t="n">
+        <v>22.74</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -10892,6 +12806,15 @@
       <c r="O213" t="n">
         <v>-95.77</v>
       </c>
+      <c r="P213" t="n">
+        <v>-65.75</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>-10.01</v>
+      </c>
+      <c r="R213" t="n">
+        <v>22.74</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -10941,6 +12864,15 @@
       <c r="O214" t="n">
         <v>-95.77</v>
       </c>
+      <c r="P214" t="n">
+        <v>-65.75</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>-10.01</v>
+      </c>
+      <c r="R214" t="n">
+        <v>22.74</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -10990,6 +12922,15 @@
       <c r="O215" t="n">
         <v>-95.77</v>
       </c>
+      <c r="P215" t="n">
+        <v>-65.75</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>-10.01</v>
+      </c>
+      <c r="R215" t="n">
+        <v>22.74</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -11039,6 +12980,15 @@
       <c r="O216" t="n">
         <v>-95.77</v>
       </c>
+      <c r="P216" t="n">
+        <v>-65.75</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>-10.01</v>
+      </c>
+      <c r="R216" t="n">
+        <v>22.74</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -11088,6 +13038,15 @@
       <c r="O217" t="n">
         <v>-95.77</v>
       </c>
+      <c r="P217" t="n">
+        <v>-65.75</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>-10.01</v>
+      </c>
+      <c r="R217" t="n">
+        <v>22.74</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -11137,6 +13096,15 @@
       <c r="O218" t="n">
         <v>-96.78</v>
       </c>
+      <c r="P218" t="n">
+        <v>-66.73999999999999</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>-10.02</v>
+      </c>
+      <c r="R218" t="n">
+        <v>21.76</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -11186,6 +13154,15 @@
       <c r="O219" t="n">
         <v>-96.78</v>
       </c>
+      <c r="P219" t="n">
+        <v>-66.73999999999999</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>-10.02</v>
+      </c>
+      <c r="R219" t="n">
+        <v>21.76</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -11235,6 +13212,15 @@
       <c r="O220" t="n">
         <v>-96.78</v>
       </c>
+      <c r="P220" t="n">
+        <v>-66.73999999999999</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>-10.02</v>
+      </c>
+      <c r="R220" t="n">
+        <v>21.76</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -11284,6 +13270,15 @@
       <c r="O221" t="n">
         <v>-96.78</v>
       </c>
+      <c r="P221" t="n">
+        <v>-66.73999999999999</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>-10.02</v>
+      </c>
+      <c r="R221" t="n">
+        <v>21.76</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -11333,6 +13328,15 @@
       <c r="O222" t="n">
         <v>-96.78</v>
       </c>
+      <c r="P222" t="n">
+        <v>-66.73999999999999</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>-10.02</v>
+      </c>
+      <c r="R222" t="n">
+        <v>21.76</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -11382,6 +13386,15 @@
       <c r="O223" t="n">
         <v>-96.78</v>
       </c>
+      <c r="P223" t="n">
+        <v>-66.73999999999999</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>-10.02</v>
+      </c>
+      <c r="R223" t="n">
+        <v>21.76</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -11431,6 +13444,15 @@
       <c r="O224" t="n">
         <v>-96.78</v>
       </c>
+      <c r="P224" t="n">
+        <v>-66.73999999999999</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>-10.02</v>
+      </c>
+      <c r="R224" t="n">
+        <v>21.76</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -11480,6 +13502,15 @@
       <c r="O225" t="n">
         <v>-96.78</v>
       </c>
+      <c r="P225" t="n">
+        <v>-66.73999999999999</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>-10.02</v>
+      </c>
+      <c r="R225" t="n">
+        <v>21.76</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -11529,6 +13560,15 @@
       <c r="O226" t="n">
         <v>-97.93000000000001</v>
       </c>
+      <c r="P226" t="n">
+        <v>-67.92</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>-10.03</v>
+      </c>
+      <c r="R226" t="n">
+        <v>20.73</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -11578,6 +13618,15 @@
       <c r="O227" t="n">
         <v>-97.93000000000001</v>
       </c>
+      <c r="P227" t="n">
+        <v>-67.92</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>-10.03</v>
+      </c>
+      <c r="R227" t="n">
+        <v>20.73</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -11627,6 +13676,15 @@
       <c r="O228" t="n">
         <v>-97.93000000000001</v>
       </c>
+      <c r="P228" t="n">
+        <v>-67.92</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>-10.03</v>
+      </c>
+      <c r="R228" t="n">
+        <v>20.73</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -11676,6 +13734,15 @@
       <c r="O229" t="n">
         <v>-97.93000000000001</v>
       </c>
+      <c r="P229" t="n">
+        <v>-67.92</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>-10.03</v>
+      </c>
+      <c r="R229" t="n">
+        <v>20.73</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -11725,6 +13792,15 @@
       <c r="O230" t="n">
         <v>-97.93000000000001</v>
       </c>
+      <c r="P230" t="n">
+        <v>-67.92</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>-10.03</v>
+      </c>
+      <c r="R230" t="n">
+        <v>20.73</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -11774,6 +13850,15 @@
       <c r="O231" t="n">
         <v>-97.93000000000001</v>
       </c>
+      <c r="P231" t="n">
+        <v>-67.92</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>-10.03</v>
+      </c>
+      <c r="R231" t="n">
+        <v>20.73</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -11823,6 +13908,15 @@
       <c r="O232" t="n">
         <v>-97.93000000000001</v>
       </c>
+      <c r="P232" t="n">
+        <v>-67.92</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>-10.03</v>
+      </c>
+      <c r="R232" t="n">
+        <v>20.73</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -11872,6 +13966,15 @@
       <c r="O233" t="n">
         <v>-97.93000000000001</v>
       </c>
+      <c r="P233" t="n">
+        <v>-67.92</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>-10.03</v>
+      </c>
+      <c r="R233" t="n">
+        <v>20.73</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -11921,6 +14024,15 @@
       <c r="O234" t="n">
         <v>-99.03</v>
       </c>
+      <c r="P234" t="n">
+        <v>-68.98</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>-10.05</v>
+      </c>
+      <c r="R234" t="n">
+        <v>19.7</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -11970,6 +14082,15 @@
       <c r="O235" t="n">
         <v>-99.03</v>
       </c>
+      <c r="P235" t="n">
+        <v>-68.98</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>-10.05</v>
+      </c>
+      <c r="R235" t="n">
+        <v>19.7</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -12019,6 +14140,15 @@
       <c r="O236" t="n">
         <v>-99.03</v>
       </c>
+      <c r="P236" t="n">
+        <v>-68.98</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>-10.05</v>
+      </c>
+      <c r="R236" t="n">
+        <v>19.7</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -12068,6 +14198,15 @@
       <c r="O237" t="n">
         <v>-99.03</v>
       </c>
+      <c r="P237" t="n">
+        <v>-68.98</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>-10.05</v>
+      </c>
+      <c r="R237" t="n">
+        <v>19.7</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -12117,6 +14256,15 @@
       <c r="O238" t="n">
         <v>-99.03</v>
       </c>
+      <c r="P238" t="n">
+        <v>-68.98</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>-10.05</v>
+      </c>
+      <c r="R238" t="n">
+        <v>19.7</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -12166,6 +14314,15 @@
       <c r="O239" t="n">
         <v>-99.03</v>
       </c>
+      <c r="P239" t="n">
+        <v>-68.98</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>-10.05</v>
+      </c>
+      <c r="R239" t="n">
+        <v>19.7</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -12215,6 +14372,15 @@
       <c r="O240" t="n">
         <v>-99.03</v>
       </c>
+      <c r="P240" t="n">
+        <v>-68.98</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>-10.05</v>
+      </c>
+      <c r="R240" t="n">
+        <v>19.7</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -12264,6 +14430,15 @@
       <c r="O241" t="n">
         <v>-99.03</v>
       </c>
+      <c r="P241" t="n">
+        <v>-68.98</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>-10.05</v>
+      </c>
+      <c r="R241" t="n">
+        <v>19.7</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -12313,6 +14488,15 @@
       <c r="O242" t="n">
         <v>-100.04</v>
       </c>
+      <c r="P242" t="n">
+        <v>-69.97</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>-10.06</v>
+      </c>
+      <c r="R242" t="n">
+        <v>18.77</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -12362,6 +14546,15 @@
       <c r="O243" t="n">
         <v>-100.04</v>
       </c>
+      <c r="P243" t="n">
+        <v>-69.97</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>-10.06</v>
+      </c>
+      <c r="R243" t="n">
+        <v>18.77</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -12411,6 +14604,15 @@
       <c r="O244" t="n">
         <v>-100.04</v>
       </c>
+      <c r="P244" t="n">
+        <v>-69.97</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>-10.06</v>
+      </c>
+      <c r="R244" t="n">
+        <v>18.77</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -12460,6 +14662,15 @@
       <c r="O245" t="n">
         <v>-100.04</v>
       </c>
+      <c r="P245" t="n">
+        <v>-69.97</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>-10.06</v>
+      </c>
+      <c r="R245" t="n">
+        <v>18.77</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -12509,6 +14720,15 @@
       <c r="O246" t="n">
         <v>-100.04</v>
       </c>
+      <c r="P246" t="n">
+        <v>-69.97</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>-10.06</v>
+      </c>
+      <c r="R246" t="n">
+        <v>18.77</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -12558,6 +14778,15 @@
       <c r="O247" t="n">
         <v>-100.04</v>
       </c>
+      <c r="P247" t="n">
+        <v>-69.97</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>-10.06</v>
+      </c>
+      <c r="R247" t="n">
+        <v>18.77</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -12607,6 +14836,15 @@
       <c r="O248" t="n">
         <v>-100.04</v>
       </c>
+      <c r="P248" t="n">
+        <v>-69.97</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>-10.06</v>
+      </c>
+      <c r="R248" t="n">
+        <v>18.77</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -12656,6 +14894,15 @@
       <c r="O249" t="n">
         <v>-100.04</v>
       </c>
+      <c r="P249" t="n">
+        <v>-69.97</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>-10.06</v>
+      </c>
+      <c r="R249" t="n">
+        <v>18.77</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -12705,6 +14952,15 @@
       <c r="O250" t="n">
         <v>-101.02</v>
       </c>
+      <c r="P250" t="n">
+        <v>-70.92</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>-10.1</v>
+      </c>
+      <c r="R250" t="n">
+        <v>17.89</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -12754,6 +15010,15 @@
       <c r="O251" t="n">
         <v>-101.02</v>
       </c>
+      <c r="P251" t="n">
+        <v>-70.92</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>-10.1</v>
+      </c>
+      <c r="R251" t="n">
+        <v>17.89</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -12803,6 +15068,15 @@
       <c r="O252" t="n">
         <v>-101.02</v>
       </c>
+      <c r="P252" t="n">
+        <v>-70.92</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>-10.1</v>
+      </c>
+      <c r="R252" t="n">
+        <v>17.89</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -12852,6 +15126,15 @@
       <c r="O253" t="n">
         <v>-101.02</v>
       </c>
+      <c r="P253" t="n">
+        <v>-70.92</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>-10.1</v>
+      </c>
+      <c r="R253" t="n">
+        <v>17.89</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -12901,6 +15184,15 @@
       <c r="O254" t="n">
         <v>-101.02</v>
       </c>
+      <c r="P254" t="n">
+        <v>-70.92</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>-10.1</v>
+      </c>
+      <c r="R254" t="n">
+        <v>17.89</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -12950,6 +15242,15 @@
       <c r="O255" t="n">
         <v>-101.02</v>
       </c>
+      <c r="P255" t="n">
+        <v>-70.92</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>-10.1</v>
+      </c>
+      <c r="R255" t="n">
+        <v>17.89</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -12999,6 +15300,15 @@
       <c r="O256" t="n">
         <v>-101.02</v>
       </c>
+      <c r="P256" t="n">
+        <v>-70.92</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>-10.1</v>
+      </c>
+      <c r="R256" t="n">
+        <v>17.89</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -13048,6 +15358,15 @@
       <c r="O257" t="n">
         <v>-101.02</v>
       </c>
+      <c r="P257" t="n">
+        <v>-70.92</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>-10.1</v>
+      </c>
+      <c r="R257" t="n">
+        <v>17.89</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -13097,6 +15416,15 @@
       <c r="O258" t="n">
         <v>-102.03</v>
       </c>
+      <c r="P258" t="n">
+        <v>-71.89</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>-10.13</v>
+      </c>
+      <c r="R258" t="n">
+        <v>16.97</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -13146,6 +15474,15 @@
       <c r="O259" t="n">
         <v>-102.03</v>
       </c>
+      <c r="P259" t="n">
+        <v>-71.89</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>-10.13</v>
+      </c>
+      <c r="R259" t="n">
+        <v>16.97</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -13195,6 +15532,15 @@
       <c r="O260" t="n">
         <v>-102.03</v>
       </c>
+      <c r="P260" t="n">
+        <v>-71.89</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>-10.13</v>
+      </c>
+      <c r="R260" t="n">
+        <v>16.97</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -13244,6 +15590,15 @@
       <c r="O261" t="n">
         <v>-102.03</v>
       </c>
+      <c r="P261" t="n">
+        <v>-71.89</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>-10.13</v>
+      </c>
+      <c r="R261" t="n">
+        <v>16.97</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -13293,6 +15648,15 @@
       <c r="O262" t="n">
         <v>-102.03</v>
       </c>
+      <c r="P262" t="n">
+        <v>-71.89</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>-10.13</v>
+      </c>
+      <c r="R262" t="n">
+        <v>16.97</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -13342,6 +15706,15 @@
       <c r="O263" t="n">
         <v>-102.03</v>
       </c>
+      <c r="P263" t="n">
+        <v>-71.89</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>-10.13</v>
+      </c>
+      <c r="R263" t="n">
+        <v>16.97</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -13391,6 +15764,15 @@
       <c r="O264" t="n">
         <v>-102.03</v>
       </c>
+      <c r="P264" t="n">
+        <v>-71.89</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>-10.13</v>
+      </c>
+      <c r="R264" t="n">
+        <v>16.97</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -13440,6 +15822,15 @@
       <c r="O265" t="n">
         <v>-102.03</v>
       </c>
+      <c r="P265" t="n">
+        <v>-71.89</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>-10.13</v>
+      </c>
+      <c r="R265" t="n">
+        <v>16.97</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -13489,6 +15880,15 @@
       <c r="O266" t="n">
         <v>-103.04</v>
       </c>
+      <c r="P266" t="n">
+        <v>-72.86</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>-10.17</v>
+      </c>
+      <c r="R266" t="n">
+        <v>15.98</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -13538,6 +15938,15 @@
       <c r="O267" t="n">
         <v>-103.04</v>
       </c>
+      <c r="P267" t="n">
+        <v>-72.86</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>-10.17</v>
+      </c>
+      <c r="R267" t="n">
+        <v>15.98</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -13587,6 +15996,15 @@
       <c r="O268" t="n">
         <v>-103.04</v>
       </c>
+      <c r="P268" t="n">
+        <v>-72.86</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>-10.17</v>
+      </c>
+      <c r="R268" t="n">
+        <v>15.98</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -13636,6 +16054,15 @@
       <c r="O269" t="n">
         <v>-103.04</v>
       </c>
+      <c r="P269" t="n">
+        <v>-72.86</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>-10.17</v>
+      </c>
+      <c r="R269" t="n">
+        <v>15.98</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -13685,6 +16112,15 @@
       <c r="O270" t="n">
         <v>-103.04</v>
       </c>
+      <c r="P270" t="n">
+        <v>-72.86</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>-10.17</v>
+      </c>
+      <c r="R270" t="n">
+        <v>15.98</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -13734,6 +16170,15 @@
       <c r="O271" t="n">
         <v>-103.04</v>
       </c>
+      <c r="P271" t="n">
+        <v>-72.86</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>-10.17</v>
+      </c>
+      <c r="R271" t="n">
+        <v>15.98</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -13783,6 +16228,15 @@
       <c r="O272" t="n">
         <v>-103.04</v>
       </c>
+      <c r="P272" t="n">
+        <v>-72.86</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>-10.17</v>
+      </c>
+      <c r="R272" t="n">
+        <v>15.98</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -13832,6 +16286,15 @@
       <c r="O273" t="n">
         <v>-103.04</v>
       </c>
+      <c r="P273" t="n">
+        <v>-72.86</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>-10.17</v>
+      </c>
+      <c r="R273" t="n">
+        <v>15.98</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -13881,6 +16344,15 @@
       <c r="O274" t="n">
         <v>-104.04</v>
       </c>
+      <c r="P274" t="n">
+        <v>-73.81999999999999</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>-10.21</v>
+      </c>
+      <c r="R274" t="n">
+        <v>14.92</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -13930,6 +16402,15 @@
       <c r="O275" t="n">
         <v>-104.04</v>
       </c>
+      <c r="P275" t="n">
+        <v>-73.81999999999999</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>-10.21</v>
+      </c>
+      <c r="R275" t="n">
+        <v>14.92</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -13979,6 +16460,15 @@
       <c r="O276" t="n">
         <v>-104.04</v>
       </c>
+      <c r="P276" t="n">
+        <v>-73.81999999999999</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>-10.21</v>
+      </c>
+      <c r="R276" t="n">
+        <v>14.92</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -14028,6 +16518,15 @@
       <c r="O277" t="n">
         <v>-104.04</v>
       </c>
+      <c r="P277" t="n">
+        <v>-73.81999999999999</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>-10.21</v>
+      </c>
+      <c r="R277" t="n">
+        <v>14.92</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -14077,6 +16576,15 @@
       <c r="O278" t="n">
         <v>-104.04</v>
       </c>
+      <c r="P278" t="n">
+        <v>-73.81999999999999</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>-10.21</v>
+      </c>
+      <c r="R278" t="n">
+        <v>14.92</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -14126,6 +16634,15 @@
       <c r="O279" t="n">
         <v>-104.04</v>
       </c>
+      <c r="P279" t="n">
+        <v>-73.81999999999999</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>-10.21</v>
+      </c>
+      <c r="R279" t="n">
+        <v>14.92</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -14175,6 +16692,15 @@
       <c r="O280" t="n">
         <v>-104.04</v>
       </c>
+      <c r="P280" t="n">
+        <v>-73.81999999999999</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>-10.21</v>
+      </c>
+      <c r="R280" t="n">
+        <v>14.92</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -14224,6 +16750,15 @@
       <c r="O281" t="n">
         <v>-104.04</v>
       </c>
+      <c r="P281" t="n">
+        <v>-73.81999999999999</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>-10.21</v>
+      </c>
+      <c r="R281" t="n">
+        <v>14.92</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -14273,6 +16808,15 @@
       <c r="O282" t="n">
         <v>-105.04</v>
       </c>
+      <c r="P282" t="n">
+        <v>-74.78</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>-10.26</v>
+      </c>
+      <c r="R282" t="n">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -14322,6 +16866,15 @@
       <c r="O283" t="n">
         <v>-105.04</v>
       </c>
+      <c r="P283" t="n">
+        <v>-74.78</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>-10.26</v>
+      </c>
+      <c r="R283" t="n">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -14371,6 +16924,15 @@
       <c r="O284" t="n">
         <v>-105.04</v>
       </c>
+      <c r="P284" t="n">
+        <v>-74.78</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>-10.26</v>
+      </c>
+      <c r="R284" t="n">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -14420,6 +16982,15 @@
       <c r="O285" t="n">
         <v>-105.04</v>
       </c>
+      <c r="P285" t="n">
+        <v>-74.78</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>-10.26</v>
+      </c>
+      <c r="R285" t="n">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -14469,6 +17040,15 @@
       <c r="O286" t="n">
         <v>-105.04</v>
       </c>
+      <c r="P286" t="n">
+        <v>-74.78</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>-10.26</v>
+      </c>
+      <c r="R286" t="n">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -14518,6 +17098,15 @@
       <c r="O287" t="n">
         <v>-105.04</v>
       </c>
+      <c r="P287" t="n">
+        <v>-74.78</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>-10.26</v>
+      </c>
+      <c r="R287" t="n">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -14567,6 +17156,15 @@
       <c r="O288" t="n">
         <v>-105.04</v>
       </c>
+      <c r="P288" t="n">
+        <v>-74.78</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>-10.26</v>
+      </c>
+      <c r="R288" t="n">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -14616,6 +17214,15 @@
       <c r="O289" t="n">
         <v>-105.04</v>
       </c>
+      <c r="P289" t="n">
+        <v>-74.78</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>-10.26</v>
+      </c>
+      <c r="R289" t="n">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -14665,6 +17272,15 @@
       <c r="O290" t="n">
         <v>-106.04</v>
       </c>
+      <c r="P290" t="n">
+        <v>-75.72</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>-10.31</v>
+      </c>
+      <c r="R290" t="n">
+        <v>12.89</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -14714,6 +17330,15 @@
       <c r="O291" t="n">
         <v>-106.04</v>
       </c>
+      <c r="P291" t="n">
+        <v>-75.72</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>-10.31</v>
+      </c>
+      <c r="R291" t="n">
+        <v>12.89</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -14763,6 +17388,15 @@
       <c r="O292" t="n">
         <v>-106.04</v>
       </c>
+      <c r="P292" t="n">
+        <v>-75.72</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>-10.31</v>
+      </c>
+      <c r="R292" t="n">
+        <v>12.89</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -14812,6 +17446,15 @@
       <c r="O293" t="n">
         <v>-106.04</v>
       </c>
+      <c r="P293" t="n">
+        <v>-75.72</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>-10.31</v>
+      </c>
+      <c r="R293" t="n">
+        <v>12.89</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -14861,6 +17504,15 @@
       <c r="O294" t="n">
         <v>-106.04</v>
       </c>
+      <c r="P294" t="n">
+        <v>-75.72</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>-10.31</v>
+      </c>
+      <c r="R294" t="n">
+        <v>12.89</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -14910,6 +17562,15 @@
       <c r="O295" t="n">
         <v>-106.04</v>
       </c>
+      <c r="P295" t="n">
+        <v>-75.72</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>-10.31</v>
+      </c>
+      <c r="R295" t="n">
+        <v>12.89</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -14959,6 +17620,15 @@
       <c r="O296" t="n">
         <v>-106.04</v>
       </c>
+      <c r="P296" t="n">
+        <v>-75.72</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>-10.31</v>
+      </c>
+      <c r="R296" t="n">
+        <v>12.89</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -15008,6 +17678,15 @@
       <c r="O297" t="n">
         <v>-106.04</v>
       </c>
+      <c r="P297" t="n">
+        <v>-75.72</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>-10.31</v>
+      </c>
+      <c r="R297" t="n">
+        <v>12.89</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -15057,6 +17736,15 @@
       <c r="O298" t="n">
         <v>-107.04</v>
       </c>
+      <c r="P298" t="n">
+        <v>-76.66</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>-10.38</v>
+      </c>
+      <c r="R298" t="n">
+        <v>11.97</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -15106,6 +17794,15 @@
       <c r="O299" t="n">
         <v>-107.04</v>
       </c>
+      <c r="P299" t="n">
+        <v>-76.66</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>-10.38</v>
+      </c>
+      <c r="R299" t="n">
+        <v>11.97</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -15155,6 +17852,15 @@
       <c r="O300" t="n">
         <v>-107.04</v>
       </c>
+      <c r="P300" t="n">
+        <v>-76.66</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>-10.38</v>
+      </c>
+      <c r="R300" t="n">
+        <v>11.97</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -15204,6 +17910,15 @@
       <c r="O301" t="n">
         <v>-107.04</v>
       </c>
+      <c r="P301" t="n">
+        <v>-76.66</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>-10.38</v>
+      </c>
+      <c r="R301" t="n">
+        <v>11.97</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -15253,6 +17968,15 @@
       <c r="O302" t="n">
         <v>-107.04</v>
       </c>
+      <c r="P302" t="n">
+        <v>-76.66</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>-10.38</v>
+      </c>
+      <c r="R302" t="n">
+        <v>11.97</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -15302,6 +18026,15 @@
       <c r="O303" t="n">
         <v>-107.04</v>
       </c>
+      <c r="P303" t="n">
+        <v>-76.66</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>-10.38</v>
+      </c>
+      <c r="R303" t="n">
+        <v>11.97</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -15351,6 +18084,15 @@
       <c r="O304" t="n">
         <v>-107.04</v>
       </c>
+      <c r="P304" t="n">
+        <v>-76.66</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>-10.38</v>
+      </c>
+      <c r="R304" t="n">
+        <v>11.97</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -15400,6 +18142,15 @@
       <c r="O305" t="n">
         <v>-107.04</v>
       </c>
+      <c r="P305" t="n">
+        <v>-76.66</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>-10.38</v>
+      </c>
+      <c r="R305" t="n">
+        <v>11.97</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -15449,6 +18200,15 @@
       <c r="O306" t="n">
         <v>-108.04</v>
       </c>
+      <c r="P306" t="n">
+        <v>-77.56</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>-10.48</v>
+      </c>
+      <c r="R306" t="n">
+        <v>11.04</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -15498,6 +18258,15 @@
       <c r="O307" t="n">
         <v>-108.04</v>
       </c>
+      <c r="P307" t="n">
+        <v>-77.56</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>-10.48</v>
+      </c>
+      <c r="R307" t="n">
+        <v>11.04</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -15547,6 +18316,15 @@
       <c r="O308" t="n">
         <v>-108.04</v>
       </c>
+      <c r="P308" t="n">
+        <v>-77.56</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>-10.48</v>
+      </c>
+      <c r="R308" t="n">
+        <v>11.04</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -15596,6 +18374,15 @@
       <c r="O309" t="n">
         <v>-108.04</v>
       </c>
+      <c r="P309" t="n">
+        <v>-77.56</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>-10.48</v>
+      </c>
+      <c r="R309" t="n">
+        <v>11.04</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -15645,6 +18432,15 @@
       <c r="O310" t="n">
         <v>-108.04</v>
       </c>
+      <c r="P310" t="n">
+        <v>-77.56</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>-10.48</v>
+      </c>
+      <c r="R310" t="n">
+        <v>11.04</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -15694,6 +18490,15 @@
       <c r="O311" t="n">
         <v>-108.04</v>
       </c>
+      <c r="P311" t="n">
+        <v>-77.56</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>-10.48</v>
+      </c>
+      <c r="R311" t="n">
+        <v>11.04</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -15743,6 +18548,15 @@
       <c r="O312" t="n">
         <v>-108.04</v>
       </c>
+      <c r="P312" t="n">
+        <v>-77.56</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>-10.48</v>
+      </c>
+      <c r="R312" t="n">
+        <v>11.04</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -15792,6 +18606,15 @@
       <c r="O313" t="n">
         <v>-108.04</v>
       </c>
+      <c r="P313" t="n">
+        <v>-77.56</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>-10.48</v>
+      </c>
+      <c r="R313" t="n">
+        <v>11.04</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -15841,6 +18664,15 @@
       <c r="O314" t="n">
         <v>-109.05</v>
       </c>
+      <c r="P314" t="n">
+        <v>-78.48</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>-10.57</v>
+      </c>
+      <c r="R314" t="n">
+        <v>10.15</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -15890,6 +18722,15 @@
       <c r="O315" t="n">
         <v>-109.05</v>
       </c>
+      <c r="P315" t="n">
+        <v>-78.48</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>-10.57</v>
+      </c>
+      <c r="R315" t="n">
+        <v>10.15</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -15939,6 +18780,15 @@
       <c r="O316" t="n">
         <v>-109.05</v>
       </c>
+      <c r="P316" t="n">
+        <v>-78.48</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>-10.57</v>
+      </c>
+      <c r="R316" t="n">
+        <v>10.15</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -15988,6 +18838,15 @@
       <c r="O317" t="n">
         <v>-109.05</v>
       </c>
+      <c r="P317" t="n">
+        <v>-78.48</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>-10.57</v>
+      </c>
+      <c r="R317" t="n">
+        <v>10.15</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -16037,6 +18896,15 @@
       <c r="O318" t="n">
         <v>-109.05</v>
       </c>
+      <c r="P318" t="n">
+        <v>-78.48</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>-10.57</v>
+      </c>
+      <c r="R318" t="n">
+        <v>10.15</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -16086,6 +18954,15 @@
       <c r="O319" t="n">
         <v>-109.05</v>
       </c>
+      <c r="P319" t="n">
+        <v>-78.48</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>-10.57</v>
+      </c>
+      <c r="R319" t="n">
+        <v>10.15</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -16135,6 +19012,15 @@
       <c r="O320" t="n">
         <v>-109.05</v>
       </c>
+      <c r="P320" t="n">
+        <v>-78.48</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>-10.57</v>
+      </c>
+      <c r="R320" t="n">
+        <v>10.15</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -16184,6 +19070,15 @@
       <c r="O321" t="n">
         <v>-109.05</v>
       </c>
+      <c r="P321" t="n">
+        <v>-78.48</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>-10.57</v>
+      </c>
+      <c r="R321" t="n">
+        <v>10.15</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -16233,6 +19128,15 @@
       <c r="O322" t="n">
         <v>-110.07</v>
       </c>
+      <c r="P322" t="n">
+        <v>-79.34</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>-10.74</v>
+      </c>
+      <c r="R322" t="n">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -16282,6 +19186,15 @@
       <c r="O323" t="n">
         <v>-110.07</v>
       </c>
+      <c r="P323" t="n">
+        <v>-79.34</v>
+      </c>
+      <c r="Q323" t="n">
+        <v>-10.74</v>
+      </c>
+      <c r="R323" t="n">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -16331,6 +19244,15 @@
       <c r="O324" t="n">
         <v>-110.07</v>
       </c>
+      <c r="P324" t="n">
+        <v>-79.34</v>
+      </c>
+      <c r="Q324" t="n">
+        <v>-10.74</v>
+      </c>
+      <c r="R324" t="n">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -16380,6 +19302,15 @@
       <c r="O325" t="n">
         <v>-110.07</v>
       </c>
+      <c r="P325" t="n">
+        <v>-79.34</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>-10.74</v>
+      </c>
+      <c r="R325" t="n">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -16429,6 +19360,15 @@
       <c r="O326" t="n">
         <v>-110.07</v>
       </c>
+      <c r="P326" t="n">
+        <v>-79.34</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>-10.74</v>
+      </c>
+      <c r="R326" t="n">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -16478,6 +19418,15 @@
       <c r="O327" t="n">
         <v>-110.07</v>
       </c>
+      <c r="P327" t="n">
+        <v>-79.34</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>-10.74</v>
+      </c>
+      <c r="R327" t="n">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -16527,6 +19476,15 @@
       <c r="O328" t="n">
         <v>-110.07</v>
       </c>
+      <c r="P328" t="n">
+        <v>-79.34</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>-10.74</v>
+      </c>
+      <c r="R328" t="n">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -16576,6 +19534,15 @@
       <c r="O329" t="n">
         <v>-110.07</v>
       </c>
+      <c r="P329" t="n">
+        <v>-79.34</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>-10.74</v>
+      </c>
+      <c r="R329" t="n">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -16625,6 +19592,15 @@
       <c r="O330" t="n">
         <v>-111.07</v>
       </c>
+      <c r="P330" t="n">
+        <v>-80.18000000000001</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>-10.89</v>
+      </c>
+      <c r="R330" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -16674,6 +19650,15 @@
       <c r="O331" t="n">
         <v>-111.07</v>
       </c>
+      <c r="P331" t="n">
+        <v>-80.18000000000001</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>-10.89</v>
+      </c>
+      <c r="R331" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -16723,6 +19708,15 @@
       <c r="O332" t="n">
         <v>-111.07</v>
       </c>
+      <c r="P332" t="n">
+        <v>-80.18000000000001</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>-10.89</v>
+      </c>
+      <c r="R332" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -16772,6 +19766,15 @@
       <c r="O333" t="n">
         <v>-111.07</v>
       </c>
+      <c r="P333" t="n">
+        <v>-80.18000000000001</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>-10.89</v>
+      </c>
+      <c r="R333" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -16821,6 +19824,15 @@
       <c r="O334" t="n">
         <v>-111.07</v>
       </c>
+      <c r="P334" t="n">
+        <v>-80.18000000000001</v>
+      </c>
+      <c r="Q334" t="n">
+        <v>-10.89</v>
+      </c>
+      <c r="R334" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -16870,6 +19882,15 @@
       <c r="O335" t="n">
         <v>-111.07</v>
       </c>
+      <c r="P335" t="n">
+        <v>-80.18000000000001</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>-10.89</v>
+      </c>
+      <c r="R335" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -16919,6 +19940,15 @@
       <c r="O336" t="n">
         <v>-111.07</v>
       </c>
+      <c r="P336" t="n">
+        <v>-80.18000000000001</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>-10.89</v>
+      </c>
+      <c r="R336" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -16968,6 +19998,15 @@
       <c r="O337" t="n">
         <v>-111.07</v>
       </c>
+      <c r="P337" t="n">
+        <v>-80.18000000000001</v>
+      </c>
+      <c r="Q337" t="n">
+        <v>-10.89</v>
+      </c>
+      <c r="R337" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -17017,6 +20056,15 @@
       <c r="O338" t="n">
         <v>-112.08</v>
       </c>
+      <c r="P338" t="n">
+        <v>-80.91</v>
+      </c>
+      <c r="Q338" t="n">
+        <v>-11.15</v>
+      </c>
+      <c r="R338" t="n">
+        <v>6.96</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -17066,6 +20114,15 @@
       <c r="O339" t="n">
         <v>-112.08</v>
       </c>
+      <c r="P339" t="n">
+        <v>-80.91</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>-11.15</v>
+      </c>
+      <c r="R339" t="n">
+        <v>6.96</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -17115,6 +20172,15 @@
       <c r="O340" t="n">
         <v>-112.08</v>
       </c>
+      <c r="P340" t="n">
+        <v>-80.91</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>-11.15</v>
+      </c>
+      <c r="R340" t="n">
+        <v>6.96</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -17164,6 +20230,15 @@
       <c r="O341" t="n">
         <v>-112.08</v>
       </c>
+      <c r="P341" t="n">
+        <v>-80.91</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>-11.15</v>
+      </c>
+      <c r="R341" t="n">
+        <v>6.96</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -17213,6 +20288,15 @@
       <c r="O342" t="n">
         <v>-112.08</v>
       </c>
+      <c r="P342" t="n">
+        <v>-80.91</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>-11.15</v>
+      </c>
+      <c r="R342" t="n">
+        <v>6.96</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -17262,6 +20346,15 @@
       <c r="O343" t="n">
         <v>-112.08</v>
       </c>
+      <c r="P343" t="n">
+        <v>-80.91</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>-11.15</v>
+      </c>
+      <c r="R343" t="n">
+        <v>6.96</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -17311,6 +20404,15 @@
       <c r="O344" t="n">
         <v>-112.08</v>
       </c>
+      <c r="P344" t="n">
+        <v>-80.91</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>-11.15</v>
+      </c>
+      <c r="R344" t="n">
+        <v>6.96</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -17360,6 +20462,15 @@
       <c r="O345" t="n">
         <v>-112.08</v>
       </c>
+      <c r="P345" t="n">
+        <v>-80.91</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>-11.15</v>
+      </c>
+      <c r="R345" t="n">
+        <v>6.96</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -17409,6 +20520,15 @@
       <c r="O346" t="n">
         <v>-113.09</v>
       </c>
+      <c r="P346" t="n">
+        <v>-81.65000000000001</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>-11.35</v>
+      </c>
+      <c r="R346" t="n">
+        <v>5.94</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -17458,6 +20578,15 @@
       <c r="O347" t="n">
         <v>-113.09</v>
       </c>
+      <c r="P347" t="n">
+        <v>-81.65000000000001</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>-11.35</v>
+      </c>
+      <c r="R347" t="n">
+        <v>5.94</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -17507,6 +20636,15 @@
       <c r="O348" t="n">
         <v>-113.09</v>
       </c>
+      <c r="P348" t="n">
+        <v>-81.65000000000001</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>-11.35</v>
+      </c>
+      <c r="R348" t="n">
+        <v>5.94</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -17556,6 +20694,15 @@
       <c r="O349" t="n">
         <v>-113.09</v>
       </c>
+      <c r="P349" t="n">
+        <v>-81.65000000000001</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>-11.35</v>
+      </c>
+      <c r="R349" t="n">
+        <v>5.94</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -17605,6 +20752,15 @@
       <c r="O350" t="n">
         <v>-113.09</v>
       </c>
+      <c r="P350" t="n">
+        <v>-81.65000000000001</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>-11.35</v>
+      </c>
+      <c r="R350" t="n">
+        <v>5.94</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -17654,6 +20810,15 @@
       <c r="O351" t="n">
         <v>-113.09</v>
       </c>
+      <c r="P351" t="n">
+        <v>-81.65000000000001</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>-11.35</v>
+      </c>
+      <c r="R351" t="n">
+        <v>5.94</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -17703,6 +20868,15 @@
       <c r="O352" t="n">
         <v>-113.09</v>
       </c>
+      <c r="P352" t="n">
+        <v>-81.65000000000001</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>-11.35</v>
+      </c>
+      <c r="R352" t="n">
+        <v>5.94</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -17752,6 +20926,15 @@
       <c r="O353" t="n">
         <v>-113.09</v>
       </c>
+      <c r="P353" t="n">
+        <v>-81.65000000000001</v>
+      </c>
+      <c r="Q353" t="n">
+        <v>-11.35</v>
+      </c>
+      <c r="R353" t="n">
+        <v>5.94</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -17801,6 +20984,15 @@
       <c r="O354" t="n">
         <v>-114.1</v>
       </c>
+      <c r="P354" t="n">
+        <v>-82.23999999999999</v>
+      </c>
+      <c r="Q354" t="n">
+        <v>-11.7</v>
+      </c>
+      <c r="R354" t="n">
+        <v>4.95</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -17850,6 +21042,15 @@
       <c r="O355" t="n">
         <v>-114.1</v>
       </c>
+      <c r="P355" t="n">
+        <v>-82.23999999999999</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>-11.7</v>
+      </c>
+      <c r="R355" t="n">
+        <v>4.95</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -17899,6 +21100,15 @@
       <c r="O356" t="n">
         <v>-114.1</v>
       </c>
+      <c r="P356" t="n">
+        <v>-82.23999999999999</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>-11.7</v>
+      </c>
+      <c r="R356" t="n">
+        <v>4.95</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -17948,6 +21158,15 @@
       <c r="O357" t="n">
         <v>-114.1</v>
       </c>
+      <c r="P357" t="n">
+        <v>-82.23999999999999</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>-11.7</v>
+      </c>
+      <c r="R357" t="n">
+        <v>4.95</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -17997,6 +21216,15 @@
       <c r="O358" t="n">
         <v>-114.1</v>
       </c>
+      <c r="P358" t="n">
+        <v>-82.23999999999999</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>-11.7</v>
+      </c>
+      <c r="R358" t="n">
+        <v>4.95</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -18046,6 +21274,15 @@
       <c r="O359" t="n">
         <v>-114.1</v>
       </c>
+      <c r="P359" t="n">
+        <v>-82.23999999999999</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>-11.7</v>
+      </c>
+      <c r="R359" t="n">
+        <v>4.95</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -18095,6 +21332,15 @@
       <c r="O360" t="n">
         <v>-114.1</v>
       </c>
+      <c r="P360" t="n">
+        <v>-82.23999999999999</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>-11.7</v>
+      </c>
+      <c r="R360" t="n">
+        <v>4.95</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -18144,6 +21390,15 @@
       <c r="O361" t="n">
         <v>-114.1</v>
       </c>
+      <c r="P361" t="n">
+        <v>-82.23999999999999</v>
+      </c>
+      <c r="Q361" t="n">
+        <v>-11.7</v>
+      </c>
+      <c r="R361" t="n">
+        <v>4.95</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -18193,6 +21448,15 @@
       <c r="O362" t="n">
         <v>-115.11</v>
       </c>
+      <c r="P362" t="n">
+        <v>-83.03</v>
+      </c>
+      <c r="Q362" t="n">
+        <v>-11.94</v>
+      </c>
+      <c r="R362" t="n">
+        <v>4.22</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -18242,6 +21506,15 @@
       <c r="O363" t="n">
         <v>-115.11</v>
       </c>
+      <c r="P363" t="n">
+        <v>-83.03</v>
+      </c>
+      <c r="Q363" t="n">
+        <v>-11.94</v>
+      </c>
+      <c r="R363" t="n">
+        <v>4.22</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -18291,6 +21564,15 @@
       <c r="O364" t="n">
         <v>-115.11</v>
       </c>
+      <c r="P364" t="n">
+        <v>-83.03</v>
+      </c>
+      <c r="Q364" t="n">
+        <v>-11.94</v>
+      </c>
+      <c r="R364" t="n">
+        <v>4.22</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -18340,6 +21622,15 @@
       <c r="O365" t="n">
         <v>-115.11</v>
       </c>
+      <c r="P365" t="n">
+        <v>-83.03</v>
+      </c>
+      <c r="Q365" t="n">
+        <v>-11.94</v>
+      </c>
+      <c r="R365" t="n">
+        <v>4.22</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -18389,6 +21680,15 @@
       <c r="O366" t="n">
         <v>-115.11</v>
       </c>
+      <c r="P366" t="n">
+        <v>-83.03</v>
+      </c>
+      <c r="Q366" t="n">
+        <v>-11.94</v>
+      </c>
+      <c r="R366" t="n">
+        <v>4.22</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -18438,6 +21738,15 @@
       <c r="O367" t="n">
         <v>-115.11</v>
       </c>
+      <c r="P367" t="n">
+        <v>-83.03</v>
+      </c>
+      <c r="Q367" t="n">
+        <v>-11.94</v>
+      </c>
+      <c r="R367" t="n">
+        <v>4.22</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -18487,6 +21796,15 @@
       <c r="O368" t="n">
         <v>-115.11</v>
       </c>
+      <c r="P368" t="n">
+        <v>-83.03</v>
+      </c>
+      <c r="Q368" t="n">
+        <v>-11.94</v>
+      </c>
+      <c r="R368" t="n">
+        <v>4.22</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -18536,6 +21854,15 @@
       <c r="O369" t="n">
         <v>-115.11</v>
       </c>
+      <c r="P369" t="n">
+        <v>-83.03</v>
+      </c>
+      <c r="Q369" t="n">
+        <v>-11.94</v>
+      </c>
+      <c r="R369" t="n">
+        <v>4.22</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -18585,6 +21912,15 @@
       <c r="O370" t="n">
         <v>-116.12</v>
       </c>
+      <c r="P370" t="n">
+        <v>-83.69</v>
+      </c>
+      <c r="Q370" t="n">
+        <v>-12.24</v>
+      </c>
+      <c r="R370" t="n">
+        <v>3.31</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -18634,6 +21970,15 @@
       <c r="O371" t="n">
         <v>-116.12</v>
       </c>
+      <c r="P371" t="n">
+        <v>-83.69</v>
+      </c>
+      <c r="Q371" t="n">
+        <v>-12.24</v>
+      </c>
+      <c r="R371" t="n">
+        <v>3.31</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -18683,6 +22028,15 @@
       <c r="O372" t="n">
         <v>-116.12</v>
       </c>
+      <c r="P372" t="n">
+        <v>-83.69</v>
+      </c>
+      <c r="Q372" t="n">
+        <v>-12.24</v>
+      </c>
+      <c r="R372" t="n">
+        <v>3.31</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -18732,6 +22086,15 @@
       <c r="O373" t="n">
         <v>-116.12</v>
       </c>
+      <c r="P373" t="n">
+        <v>-83.69</v>
+      </c>
+      <c r="Q373" t="n">
+        <v>-12.24</v>
+      </c>
+      <c r="R373" t="n">
+        <v>3.31</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -18781,6 +22144,15 @@
       <c r="O374" t="n">
         <v>-116.12</v>
       </c>
+      <c r="P374" t="n">
+        <v>-83.69</v>
+      </c>
+      <c r="Q374" t="n">
+        <v>-12.24</v>
+      </c>
+      <c r="R374" t="n">
+        <v>3.31</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -18830,6 +22202,15 @@
       <c r="O375" t="n">
         <v>-116.12</v>
       </c>
+      <c r="P375" t="n">
+        <v>-83.69</v>
+      </c>
+      <c r="Q375" t="n">
+        <v>-12.24</v>
+      </c>
+      <c r="R375" t="n">
+        <v>3.31</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -18879,6 +22260,15 @@
       <c r="O376" t="n">
         <v>-116.12</v>
       </c>
+      <c r="P376" t="n">
+        <v>-83.69</v>
+      </c>
+      <c r="Q376" t="n">
+        <v>-12.24</v>
+      </c>
+      <c r="R376" t="n">
+        <v>3.31</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -18928,6 +22318,15 @@
       <c r="O377" t="n">
         <v>-117.14</v>
       </c>
+      <c r="P377" t="n">
+        <v>-84.31999999999999</v>
+      </c>
+      <c r="Q377" t="n">
+        <v>-12.57</v>
+      </c>
+      <c r="R377" t="n">
+        <v>2.37</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -18977,6 +22376,15 @@
       <c r="O378" t="n">
         <v>-117.14</v>
       </c>
+      <c r="P378" t="n">
+        <v>-84.31999999999999</v>
+      </c>
+      <c r="Q378" t="n">
+        <v>-12.57</v>
+      </c>
+      <c r="R378" t="n">
+        <v>2.37</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -19026,6 +22434,15 @@
       <c r="O379" t="n">
         <v>-117.14</v>
       </c>
+      <c r="P379" t="n">
+        <v>-84.31999999999999</v>
+      </c>
+      <c r="Q379" t="n">
+        <v>-12.57</v>
+      </c>
+      <c r="R379" t="n">
+        <v>2.37</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -19075,6 +22492,15 @@
       <c r="O380" t="n">
         <v>-117.14</v>
       </c>
+      <c r="P380" t="n">
+        <v>-84.31999999999999</v>
+      </c>
+      <c r="Q380" t="n">
+        <v>-12.57</v>
+      </c>
+      <c r="R380" t="n">
+        <v>2.37</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -19124,6 +22550,15 @@
       <c r="O381" t="n">
         <v>-117.14</v>
       </c>
+      <c r="P381" t="n">
+        <v>-84.31999999999999</v>
+      </c>
+      <c r="Q381" t="n">
+        <v>-12.57</v>
+      </c>
+      <c r="R381" t="n">
+        <v>2.37</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -19173,6 +22608,15 @@
       <c r="O382" t="n">
         <v>-117.14</v>
       </c>
+      <c r="P382" t="n">
+        <v>-84.31999999999999</v>
+      </c>
+      <c r="Q382" t="n">
+        <v>-12.57</v>
+      </c>
+      <c r="R382" t="n">
+        <v>2.37</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -19222,6 +22666,15 @@
       <c r="O383" t="n">
         <v>-118.15</v>
       </c>
+      <c r="P383" t="n">
+        <v>-84.93000000000001</v>
+      </c>
+      <c r="Q383" t="n">
+        <v>-12.94</v>
+      </c>
+      <c r="R383" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -19271,6 +22724,15 @@
       <c r="O384" t="n">
         <v>-118.15</v>
       </c>
+      <c r="P384" t="n">
+        <v>-84.93000000000001</v>
+      </c>
+      <c r="Q384" t="n">
+        <v>-12.94</v>
+      </c>
+      <c r="R384" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -19320,6 +22782,15 @@
       <c r="O385" t="n">
         <v>-118.15</v>
       </c>
+      <c r="P385" t="n">
+        <v>-84.93000000000001</v>
+      </c>
+      <c r="Q385" t="n">
+        <v>-12.94</v>
+      </c>
+      <c r="R385" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -19369,6 +22840,15 @@
       <c r="O386" t="n">
         <v>-118.15</v>
       </c>
+      <c r="P386" t="n">
+        <v>-84.93000000000001</v>
+      </c>
+      <c r="Q386" t="n">
+        <v>-12.94</v>
+      </c>
+      <c r="R386" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -19418,6 +22898,15 @@
       <c r="O387" t="n">
         <v>-118.15</v>
       </c>
+      <c r="P387" t="n">
+        <v>-84.93000000000001</v>
+      </c>
+      <c r="Q387" t="n">
+        <v>-12.94</v>
+      </c>
+      <c r="R387" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -19467,6 +22956,15 @@
       <c r="O388" t="n">
         <v>-119.07</v>
       </c>
+      <c r="P388" t="n">
+        <v>-85.40000000000001</v>
+      </c>
+      <c r="Q388" t="n">
+        <v>-13.32</v>
+      </c>
+      <c r="R388" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -19516,6 +23014,15 @@
       <c r="O389" t="n">
         <v>-119.07</v>
       </c>
+      <c r="P389" t="n">
+        <v>-85.40000000000001</v>
+      </c>
+      <c r="Q389" t="n">
+        <v>-13.32</v>
+      </c>
+      <c r="R389" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -19565,6 +23072,15 @@
       <c r="O390" t="n">
         <v>-119.07</v>
       </c>
+      <c r="P390" t="n">
+        <v>-85.40000000000001</v>
+      </c>
+      <c r="Q390" t="n">
+        <v>-13.32</v>
+      </c>
+      <c r="R390" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -19614,6 +23130,15 @@
       <c r="O391" t="n">
         <v>-119.07</v>
       </c>
+      <c r="P391" t="n">
+        <v>-85.40000000000001</v>
+      </c>
+      <c r="Q391" t="n">
+        <v>-13.32</v>
+      </c>
+      <c r="R391" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -19663,6 +23188,15 @@
       <c r="O392" t="n">
         <v>-119.07</v>
       </c>
+      <c r="P392" t="n">
+        <v>-85.40000000000001</v>
+      </c>
+      <c r="Q392" t="n">
+        <v>-13.32</v>
+      </c>
+      <c r="R392" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -19712,6 +23246,15 @@
       <c r="O393" t="n">
         <v>-120.05</v>
       </c>
+      <c r="P393" t="n">
+        <v>-85.61</v>
+      </c>
+      <c r="Q393" t="n">
+        <v>-13.9</v>
+      </c>
+      <c r="R393" t="n">
+        <v>-0.74</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -19761,6 +23304,15 @@
       <c r="O394" t="n">
         <v>-120.05</v>
       </c>
+      <c r="P394" t="n">
+        <v>-85.61</v>
+      </c>
+      <c r="Q394" t="n">
+        <v>-13.9</v>
+      </c>
+      <c r="R394" t="n">
+        <v>-0.74</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -19810,6 +23362,15 @@
       <c r="O395" t="n">
         <v>-120.05</v>
       </c>
+      <c r="P395" t="n">
+        <v>-85.61</v>
+      </c>
+      <c r="Q395" t="n">
+        <v>-13.9</v>
+      </c>
+      <c r="R395" t="n">
+        <v>-0.74</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -19859,6 +23420,15 @@
       <c r="O396" t="n">
         <v>-120.05</v>
       </c>
+      <c r="P396" t="n">
+        <v>-85.61</v>
+      </c>
+      <c r="Q396" t="n">
+        <v>-13.9</v>
+      </c>
+      <c r="R396" t="n">
+        <v>-0.74</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -19908,6 +23478,15 @@
       <c r="O397" t="n">
         <v>-120.05</v>
       </c>
+      <c r="P397" t="n">
+        <v>-85.61</v>
+      </c>
+      <c r="Q397" t="n">
+        <v>-13.9</v>
+      </c>
+      <c r="R397" t="n">
+        <v>-0.74</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -19957,6 +23536,15 @@
       <c r="O398" t="n">
         <v>-121.05</v>
       </c>
+      <c r="P398" t="n">
+        <v>-85.87</v>
+      </c>
+      <c r="Q398" t="n">
+        <v>-14.49</v>
+      </c>
+      <c r="R398" t="n">
+        <v>-1.69</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -20006,6 +23594,15 @@
       <c r="O399" t="n">
         <v>-121.05</v>
       </c>
+      <c r="P399" t="n">
+        <v>-85.87</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>-14.49</v>
+      </c>
+      <c r="R399" t="n">
+        <v>-1.69</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -20055,6 +23652,15 @@
       <c r="O400" t="n">
         <v>-121.05</v>
       </c>
+      <c r="P400" t="n">
+        <v>-85.87</v>
+      </c>
+      <c r="Q400" t="n">
+        <v>-14.49</v>
+      </c>
+      <c r="R400" t="n">
+        <v>-1.69</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -20104,6 +23710,15 @@
       <c r="O401" t="n">
         <v>-121.05</v>
       </c>
+      <c r="P401" t="n">
+        <v>-85.87</v>
+      </c>
+      <c r="Q401" t="n">
+        <v>-14.49</v>
+      </c>
+      <c r="R401" t="n">
+        <v>-1.69</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -20153,6 +23768,15 @@
       <c r="O402" t="n">
         <v>-122.07</v>
       </c>
+      <c r="P402" t="n">
+        <v>-86.09999999999999</v>
+      </c>
+      <c r="Q402" t="n">
+        <v>-15.13</v>
+      </c>
+      <c r="R402" t="n">
+        <v>-2.51</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -20202,6 +23826,15 @@
       <c r="O403" t="n">
         <v>-122.07</v>
       </c>
+      <c r="P403" t="n">
+        <v>-86.09999999999999</v>
+      </c>
+      <c r="Q403" t="n">
+        <v>-15.13</v>
+      </c>
+      <c r="R403" t="n">
+        <v>-2.51</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -20251,6 +23884,15 @@
       <c r="O404" t="n">
         <v>-122.07</v>
       </c>
+      <c r="P404" t="n">
+        <v>-86.09999999999999</v>
+      </c>
+      <c r="Q404" t="n">
+        <v>-15.13</v>
+      </c>
+      <c r="R404" t="n">
+        <v>-2.51</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -20299,6 +23941,15 @@
       </c>
       <c r="O405" t="n">
         <v>-122.69</v>
+      </c>
+      <c r="P405" t="n">
+        <v>-86.16</v>
+      </c>
+      <c r="Q405" t="n">
+        <v>-15.52</v>
+      </c>
+      <c r="R405" t="n">
+        <v>-3.17</v>
       </c>
     </row>
   </sheetData>

--- a/250723-Zfold7-QCT-SM8750-wireless/250723-Zfold7-QCT-SM8750-wireless_concat.xlsx
+++ b/250723-Zfold7-QCT-SM8750-wireless/250723-Zfold7-QCT-SM8750-wireless_concat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R405"/>
+  <dimension ref="A1:S405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,11 @@
           <t>clean SINR [dB]</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>ΔSINR[dB]</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -577,6 +582,9 @@
       <c r="R2" t="n">
         <v>39.09</v>
       </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -635,6 +643,9 @@
       <c r="R3" t="n">
         <v>39.09</v>
       </c>
+      <c r="S3" t="n">
+        <v>-3.03</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -693,6 +704,9 @@
       <c r="R4" t="n">
         <v>39.09</v>
       </c>
+      <c r="S4" t="n">
+        <v>-0.86</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -751,6 +765,9 @@
       <c r="R5" t="n">
         <v>39.09</v>
       </c>
+      <c r="S5" t="n">
+        <v>-2.58</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -809,6 +826,9 @@
       <c r="R6" t="n">
         <v>39.09</v>
       </c>
+      <c r="S6" t="n">
+        <v>-1.36</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -867,6 +887,9 @@
       <c r="R7" t="n">
         <v>39.09</v>
       </c>
+      <c r="S7" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -925,6 +948,9 @@
       <c r="R8" t="n">
         <v>39.09</v>
       </c>
+      <c r="S8" t="n">
+        <v>-0.68</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -983,6 +1009,9 @@
       <c r="R9" t="n">
         <v>39.09</v>
       </c>
+      <c r="S9" t="n">
+        <v>-1.97</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1041,6 +1070,9 @@
       <c r="R10" t="n">
         <v>38.79</v>
       </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1099,6 +1131,9 @@
       <c r="R11" t="n">
         <v>38.79</v>
       </c>
+      <c r="S11" t="n">
+        <v>-3.17</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1157,6 +1192,9 @@
       <c r="R12" t="n">
         <v>38.79</v>
       </c>
+      <c r="S12" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1215,6 +1253,9 @@
       <c r="R13" t="n">
         <v>38.79</v>
       </c>
+      <c r="S13" t="n">
+        <v>-2.55</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1273,6 +1314,9 @@
       <c r="R14" t="n">
         <v>38.79</v>
       </c>
+      <c r="S14" t="n">
+        <v>-1.67</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1331,6 +1375,9 @@
       <c r="R15" t="n">
         <v>38.79</v>
       </c>
+      <c r="S15" t="n">
+        <v>-1.7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1389,6 +1436,9 @@
       <c r="R16" t="n">
         <v>38.79</v>
       </c>
+      <c r="S16" t="n">
+        <v>-0.39</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1447,6 +1497,9 @@
       <c r="R17" t="n">
         <v>38.79</v>
       </c>
+      <c r="S17" t="n">
+        <v>-2.03</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1505,6 +1558,9 @@
       <c r="R18" t="n">
         <v>38.54</v>
       </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1563,6 +1619,9 @@
       <c r="R19" t="n">
         <v>38.54</v>
       </c>
+      <c r="S19" t="n">
+        <v>-3.59</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1621,6 +1680,9 @@
       <c r="R20" t="n">
         <v>38.54</v>
       </c>
+      <c r="S20" t="n">
+        <v>-1.27</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1679,6 +1741,9 @@
       <c r="R21" t="n">
         <v>38.54</v>
       </c>
+      <c r="S21" t="n">
+        <v>-2.65</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1737,6 +1802,9 @@
       <c r="R22" t="n">
         <v>38.54</v>
       </c>
+      <c r="S22" t="n">
+        <v>-1.6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1795,6 +1863,9 @@
       <c r="R23" t="n">
         <v>38.54</v>
       </c>
+      <c r="S23" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1853,6 +1924,9 @@
       <c r="R24" t="n">
         <v>38.54</v>
       </c>
+      <c r="S24" t="n">
+        <v>-0.55</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1911,6 +1985,9 @@
       <c r="R25" t="n">
         <v>38.54</v>
       </c>
+      <c r="S25" t="n">
+        <v>-1.98</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1969,6 +2046,9 @@
       <c r="R26" t="n">
         <v>38.53</v>
       </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2027,6 +2107,9 @@
       <c r="R27" t="n">
         <v>38.53</v>
       </c>
+      <c r="S27" t="n">
+        <v>-4.43</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2085,6 +2168,9 @@
       <c r="R28" t="n">
         <v>38.53</v>
       </c>
+      <c r="S28" t="n">
+        <v>-2.35</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2143,6 +2229,9 @@
       <c r="R29" t="n">
         <v>38.53</v>
       </c>
+      <c r="S29" t="n">
+        <v>-2.99</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2201,6 +2290,9 @@
       <c r="R30" t="n">
         <v>38.53</v>
       </c>
+      <c r="S30" t="n">
+        <v>-1.7</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2259,6 +2351,9 @@
       <c r="R31" t="n">
         <v>38.53</v>
       </c>
+      <c r="S31" t="n">
+        <v>-1.56</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2317,6 +2412,9 @@
       <c r="R32" t="n">
         <v>38.53</v>
       </c>
+      <c r="S32" t="n">
+        <v>-1.22</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2375,6 +2473,9 @@
       <c r="R33" t="n">
         <v>38.53</v>
       </c>
+      <c r="S33" t="n">
+        <v>-2.55</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2433,6 +2534,9 @@
       <c r="R34" t="n">
         <v>38.37</v>
       </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2491,6 +2595,9 @@
       <c r="R35" t="n">
         <v>38.37</v>
       </c>
+      <c r="S35" t="n">
+        <v>-4.99</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2549,6 +2656,9 @@
       <c r="R36" t="n">
         <v>38.37</v>
       </c>
+      <c r="S36" t="n">
+        <v>-2.84</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2607,6 +2717,9 @@
       <c r="R37" t="n">
         <v>38.37</v>
       </c>
+      <c r="S37" t="n">
+        <v>-3.38</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2665,6 +2778,9 @@
       <c r="R38" t="n">
         <v>38.37</v>
       </c>
+      <c r="S38" t="n">
+        <v>-1.63</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2723,6 +2839,9 @@
       <c r="R39" t="n">
         <v>38.37</v>
       </c>
+      <c r="S39" t="n">
+        <v>-2.28</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2781,6 +2900,9 @@
       <c r="R40" t="n">
         <v>38.37</v>
       </c>
+      <c r="S40" t="n">
+        <v>-1.53</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2839,6 +2961,9 @@
       <c r="R41" t="n">
         <v>38.37</v>
       </c>
+      <c r="S41" t="n">
+        <v>-2.9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2897,6 +3022,9 @@
       <c r="R42" t="n">
         <v>37.87</v>
       </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2955,6 +3083,9 @@
       <c r="R43" t="n">
         <v>37.87</v>
       </c>
+      <c r="S43" t="n">
+        <v>-5.37</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -3013,6 +3144,9 @@
       <c r="R44" t="n">
         <v>37.87</v>
       </c>
+      <c r="S44" t="n">
+        <v>-2.98</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3071,6 +3205,9 @@
       <c r="R45" t="n">
         <v>37.87</v>
       </c>
+      <c r="S45" t="n">
+        <v>-3.44</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3129,6 +3266,9 @@
       <c r="R46" t="n">
         <v>37.87</v>
       </c>
+      <c r="S46" t="n">
+        <v>-1.56</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3187,6 +3327,9 @@
       <c r="R47" t="n">
         <v>37.87</v>
       </c>
+      <c r="S47" t="n">
+        <v>-0.33</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3245,6 +3388,9 @@
       <c r="R48" t="n">
         <v>37.87</v>
       </c>
+      <c r="S48" t="n">
+        <v>-1.62</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3303,6 +3449,9 @@
       <c r="R49" t="n">
         <v>37.87</v>
       </c>
+      <c r="S49" t="n">
+        <v>-2.88</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3361,6 +3510,9 @@
       <c r="R50" t="n">
         <v>37.58</v>
       </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3419,6 +3571,9 @@
       <c r="R51" t="n">
         <v>37.58</v>
       </c>
+      <c r="S51" t="n">
+        <v>-5.66</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3477,6 +3632,9 @@
       <c r="R52" t="n">
         <v>37.58</v>
       </c>
+      <c r="S52" t="n">
+        <v>-3.03</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3535,6 +3693,9 @@
       <c r="R53" t="n">
         <v>37.58</v>
       </c>
+      <c r="S53" t="n">
+        <v>-3.73</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3593,6 +3754,9 @@
       <c r="R54" t="n">
         <v>37.58</v>
       </c>
+      <c r="S54" t="n">
+        <v>-1.53</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3651,6 +3815,9 @@
       <c r="R55" t="n">
         <v>37.58</v>
       </c>
+      <c r="S55" t="n">
+        <v>-1.08</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3709,6 +3876,9 @@
       <c r="R56" t="n">
         <v>37.58</v>
       </c>
+      <c r="S56" t="n">
+        <v>-1.86</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3767,6 +3937,9 @@
       <c r="R57" t="n">
         <v>37.58</v>
       </c>
+      <c r="S57" t="n">
+        <v>-2.94</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3825,6 +3998,9 @@
       <c r="R58" t="n">
         <v>37</v>
       </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3883,6 +4059,9 @@
       <c r="R59" t="n">
         <v>37</v>
       </c>
+      <c r="S59" t="n">
+        <v>-5.9</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3941,6 +4120,9 @@
       <c r="R60" t="n">
         <v>37</v>
       </c>
+      <c r="S60" t="n">
+        <v>-2.98</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3999,6 +4181,9 @@
       <c r="R61" t="n">
         <v>37</v>
       </c>
+      <c r="S61" t="n">
+        <v>-3.7</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -4057,6 +4242,9 @@
       <c r="R62" t="n">
         <v>37</v>
       </c>
+      <c r="S62" t="n">
+        <v>-1.22</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -4115,6 +4303,9 @@
       <c r="R63" t="n">
         <v>37</v>
       </c>
+      <c r="S63" t="n">
+        <v>-1.63</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -4173,6 +4364,9 @@
       <c r="R64" t="n">
         <v>37</v>
       </c>
+      <c r="S64" t="n">
+        <v>-1.77</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -4231,6 +4425,9 @@
       <c r="R65" t="n">
         <v>37</v>
       </c>
+      <c r="S65" t="n">
+        <v>-2.89</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -4289,6 +4486,9 @@
       <c r="R66" t="n">
         <v>36.4</v>
       </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -4347,6 +4547,9 @@
       <c r="R67" t="n">
         <v>36.4</v>
       </c>
+      <c r="S67" t="n">
+        <v>-6.1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4405,6 +4608,9 @@
       <c r="R68" t="n">
         <v>36.4</v>
       </c>
+      <c r="S68" t="n">
+        <v>-2.83</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4463,6 +4669,9 @@
       <c r="R69" t="n">
         <v>36.4</v>
       </c>
+      <c r="S69" t="n">
+        <v>-3.8</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4521,6 +4730,9 @@
       <c r="R70" t="n">
         <v>36.4</v>
       </c>
+      <c r="S70" t="n">
+        <v>-0.98</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4579,6 +4791,9 @@
       <c r="R71" t="n">
         <v>36.4</v>
       </c>
+      <c r="S71" t="n">
+        <v>-0.86</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4637,6 +4852,9 @@
       <c r="R72" t="n">
         <v>36.4</v>
       </c>
+      <c r="S72" t="n">
+        <v>-1.59</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4695,6 +4913,9 @@
       <c r="R73" t="n">
         <v>36.4</v>
       </c>
+      <c r="S73" t="n">
+        <v>-2.8</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4753,6 +4974,9 @@
       <c r="R74" t="n">
         <v>35.79</v>
       </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4811,6 +5035,9 @@
       <c r="R75" t="n">
         <v>35.79</v>
       </c>
+      <c r="S75" t="n">
+        <v>-6.2</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4869,6 +5096,9 @@
       <c r="R76" t="n">
         <v>35.79</v>
       </c>
+      <c r="S76" t="n">
+        <v>-2.68</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4927,6 +5157,9 @@
       <c r="R77" t="n">
         <v>35.79</v>
       </c>
+      <c r="S77" t="n">
+        <v>-4.23</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4985,6 +5218,9 @@
       <c r="R78" t="n">
         <v>35.79</v>
       </c>
+      <c r="S78" t="n">
+        <v>-1.14</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -5043,6 +5279,9 @@
       <c r="R79" t="n">
         <v>35.79</v>
       </c>
+      <c r="S79" t="n">
+        <v>-1.33</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -5101,6 +5340,9 @@
       <c r="R80" t="n">
         <v>35.79</v>
       </c>
+      <c r="S80" t="n">
+        <v>-1.72</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -5159,6 +5401,9 @@
       <c r="R81" t="n">
         <v>35.79</v>
       </c>
+      <c r="S81" t="n">
+        <v>-2.63</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -5217,6 +5462,9 @@
       <c r="R82" t="n">
         <v>35.2</v>
       </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -5275,6 +5523,9 @@
       <c r="R83" t="n">
         <v>35.2</v>
       </c>
+      <c r="S83" t="n">
+        <v>-6.36</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -5333,6 +5584,9 @@
       <c r="R84" t="n">
         <v>35.2</v>
       </c>
+      <c r="S84" t="n">
+        <v>-2.61</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -5391,6 +5645,9 @@
       <c r="R85" t="n">
         <v>35.2</v>
       </c>
+      <c r="S85" t="n">
+        <v>-4.97</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -5449,6 +5706,9 @@
       <c r="R86" t="n">
         <v>35.2</v>
       </c>
+      <c r="S86" t="n">
+        <v>-0.86</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5507,6 +5767,9 @@
       <c r="R87" t="n">
         <v>35.2</v>
       </c>
+      <c r="S87" t="n">
+        <v>-0.74</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5565,6 +5828,9 @@
       <c r="R88" t="n">
         <v>35.2</v>
       </c>
+      <c r="S88" t="n">
+        <v>-1.78</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5623,6 +5889,9 @@
       <c r="R89" t="n">
         <v>35.2</v>
       </c>
+      <c r="S89" t="n">
+        <v>-2.81</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5681,6 +5950,9 @@
       <c r="R90" t="n">
         <v>34.58</v>
       </c>
+      <c r="S90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5739,6 +6011,9 @@
       <c r="R91" t="n">
         <v>34.58</v>
       </c>
+      <c r="S91" t="n">
+        <v>-6.53</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5797,6 +6072,9 @@
       <c r="R92" t="n">
         <v>34.58</v>
       </c>
+      <c r="S92" t="n">
+        <v>-2.62</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5855,6 +6133,9 @@
       <c r="R93" t="n">
         <v>34.58</v>
       </c>
+      <c r="S93" t="n">
+        <v>-5.18</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5913,6 +6194,9 @@
       <c r="R94" t="n">
         <v>34.58</v>
       </c>
+      <c r="S94" t="n">
+        <v>-0.65</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5971,6 +6255,9 @@
       <c r="R95" t="n">
         <v>34.58</v>
       </c>
+      <c r="S95" t="n">
+        <v>-0.6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -6029,6 +6316,9 @@
       <c r="R96" t="n">
         <v>34.58</v>
       </c>
+      <c r="S96" t="n">
+        <v>-1.74</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -6087,6 +6377,9 @@
       <c r="R97" t="n">
         <v>34.58</v>
       </c>
+      <c r="S97" t="n">
+        <v>-2.63</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -6145,6 +6438,9 @@
       <c r="R98" t="n">
         <v>33.84</v>
       </c>
+      <c r="S98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -6203,6 +6499,9 @@
       <c r="R99" t="n">
         <v>33.84</v>
       </c>
+      <c r="S99" t="n">
+        <v>-6.64</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -6261,6 +6560,9 @@
       <c r="R100" t="n">
         <v>33.84</v>
       </c>
+      <c r="S100" t="n">
+        <v>-2.58</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -6319,6 +6621,9 @@
       <c r="R101" t="n">
         <v>33.84</v>
       </c>
+      <c r="S101" t="n">
+        <v>-5.24</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -6376,6 +6681,9 @@
       </c>
       <c r="R102" t="n">
         <v>33.84</v>
+      </c>
+      <c r="S102" t="n">
+        <v>-0.63</v>
       </c>
     </row>
     <row r="103">
@@ -6435,6 +6743,9 @@
       <c r="R103" t="n">
         <v>33.84</v>
       </c>
+      <c r="S103" t="n">
+        <v>-0.52</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -6493,6 +6804,9 @@
       <c r="R104" t="n">
         <v>33.84</v>
       </c>
+      <c r="S104" t="n">
+        <v>-1.74</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -6551,6 +6865,9 @@
       <c r="R105" t="n">
         <v>33.84</v>
       </c>
+      <c r="S105" t="n">
+        <v>-2.55</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6609,6 +6926,9 @@
       <c r="R106" t="n">
         <v>33.02</v>
       </c>
+      <c r="S106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6667,6 +6987,9 @@
       <c r="R107" t="n">
         <v>33.02</v>
       </c>
+      <c r="S107" t="n">
+        <v>-6.72</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6725,6 +7048,9 @@
       <c r="R108" t="n">
         <v>33.02</v>
       </c>
+      <c r="S108" t="n">
+        <v>-2.45</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6783,6 +7109,9 @@
       <c r="R109" t="n">
         <v>33.02</v>
       </c>
+      <c r="S109" t="n">
+        <v>-5.22</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6841,6 +7170,9 @@
       <c r="R110" t="n">
         <v>33.02</v>
       </c>
+      <c r="S110" t="n">
+        <v>-0.63</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6899,6 +7231,9 @@
       <c r="R111" t="n">
         <v>33.02</v>
       </c>
+      <c r="S111" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6957,6 +7292,9 @@
       <c r="R112" t="n">
         <v>33.02</v>
       </c>
+      <c r="S112" t="n">
+        <v>-1.98</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -7015,6 +7353,9 @@
       <c r="R113" t="n">
         <v>33.02</v>
       </c>
+      <c r="S113" t="n">
+        <v>-2.29</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -7073,6 +7414,9 @@
       <c r="R114" t="n">
         <v>32.27</v>
       </c>
+      <c r="S114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -7131,6 +7475,9 @@
       <c r="R115" t="n">
         <v>32.27</v>
       </c>
+      <c r="S115" t="n">
+        <v>-6.84</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -7189,6 +7536,9 @@
       <c r="R116" t="n">
         <v>32.27</v>
       </c>
+      <c r="S116" t="n">
+        <v>-2.38</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -7247,6 +7597,9 @@
       <c r="R117" t="n">
         <v>32.27</v>
       </c>
+      <c r="S117" t="n">
+        <v>-5.12</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -7305,6 +7658,9 @@
       <c r="R118" t="n">
         <v>32.27</v>
       </c>
+      <c r="S118" t="n">
+        <v>-0.7</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -7363,6 +7719,9 @@
       <c r="R119" t="n">
         <v>32.27</v>
       </c>
+      <c r="S119" t="n">
+        <v>-0.61</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -7421,6 +7780,9 @@
       <c r="R120" t="n">
         <v>32.27</v>
       </c>
+      <c r="S120" t="n">
+        <v>-1.96</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -7479,6 +7841,9 @@
       <c r="R121" t="n">
         <v>32.27</v>
       </c>
+      <c r="S121" t="n">
+        <v>-2.25</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -7537,6 +7902,9 @@
       <c r="R122" t="n">
         <v>31.5</v>
       </c>
+      <c r="S122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -7595,6 +7963,9 @@
       <c r="R123" t="n">
         <v>31.5</v>
       </c>
+      <c r="S123" t="n">
+        <v>-7</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7653,6 +8024,9 @@
       <c r="R124" t="n">
         <v>31.5</v>
       </c>
+      <c r="S124" t="n">
+        <v>-2.36</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7711,6 +8085,9 @@
       <c r="R125" t="n">
         <v>31.5</v>
       </c>
+      <c r="S125" t="n">
+        <v>-5.14</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7769,6 +8146,9 @@
       <c r="R126" t="n">
         <v>31.5</v>
       </c>
+      <c r="S126" t="n">
+        <v>-0.82</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7827,6 +8207,9 @@
       <c r="R127" t="n">
         <v>31.5</v>
       </c>
+      <c r="S127" t="n">
+        <v>-0.75</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7885,6 +8268,9 @@
       <c r="R128" t="n">
         <v>31.5</v>
       </c>
+      <c r="S128" t="n">
+        <v>-2.09</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7943,6 +8329,9 @@
       <c r="R129" t="n">
         <v>31.5</v>
       </c>
+      <c r="S129" t="n">
+        <v>-2.14</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -8001,6 +8390,9 @@
       <c r="R130" t="n">
         <v>30.76</v>
       </c>
+      <c r="S130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -8059,6 +8451,9 @@
       <c r="R131" t="n">
         <v>30.76</v>
       </c>
+      <c r="S131" t="n">
+        <v>-7.19</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -8117,6 +8512,9 @@
       <c r="R132" t="n">
         <v>30.76</v>
       </c>
+      <c r="S132" t="n">
+        <v>-2.37</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -8175,6 +8573,9 @@
       <c r="R133" t="n">
         <v>30.76</v>
       </c>
+      <c r="S133" t="n">
+        <v>-5.04</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -8233,6 +8634,9 @@
       <c r="R134" t="n">
         <v>30.76</v>
       </c>
+      <c r="S134" t="n">
+        <v>-0.76</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -8291,6 +8695,9 @@
       <c r="R135" t="n">
         <v>30.76</v>
       </c>
+      <c r="S135" t="n">
+        <v>-0.79</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -8349,6 +8756,9 @@
       <c r="R136" t="n">
         <v>30.76</v>
       </c>
+      <c r="S136" t="n">
+        <v>-2.63</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -8407,6 +8817,9 @@
       <c r="R137" t="n">
         <v>30.76</v>
       </c>
+      <c r="S137" t="n">
+        <v>-2.31</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -8465,6 +8878,9 @@
       <c r="R138" t="n">
         <v>30.01</v>
       </c>
+      <c r="S138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -8523,6 +8939,9 @@
       <c r="R139" t="n">
         <v>30.01</v>
       </c>
+      <c r="S139" t="n">
+        <v>-7.37</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -8581,6 +9000,9 @@
       <c r="R140" t="n">
         <v>30.01</v>
       </c>
+      <c r="S140" t="n">
+        <v>-2.52</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -8639,6 +9061,9 @@
       <c r="R141" t="n">
         <v>30.01</v>
       </c>
+      <c r="S141" t="n">
+        <v>-5.07</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -8697,6 +9122,9 @@
       <c r="R142" t="n">
         <v>30.01</v>
       </c>
+      <c r="S142" t="n">
+        <v>-0.68</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8755,6 +9183,9 @@
       <c r="R143" t="n">
         <v>30.01</v>
       </c>
+      <c r="S143" t="n">
+        <v>-0.85</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8813,6 +9244,9 @@
       <c r="R144" t="n">
         <v>30.01</v>
       </c>
+      <c r="S144" t="n">
+        <v>-2.2</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8871,6 +9305,9 @@
       <c r="R145" t="n">
         <v>30.01</v>
       </c>
+      <c r="S145" t="n">
+        <v>-2.42</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -8929,6 +9366,9 @@
       <c r="R146" t="n">
         <v>29.19</v>
       </c>
+      <c r="S146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -8987,6 +9427,9 @@
       <c r="R147" t="n">
         <v>29.19</v>
       </c>
+      <c r="S147" t="n">
+        <v>-7.5</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -9045,6 +9488,9 @@
       <c r="R148" t="n">
         <v>29.19</v>
       </c>
+      <c r="S148" t="n">
+        <v>-2.63</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -9103,6 +9549,9 @@
       <c r="R149" t="n">
         <v>29.19</v>
       </c>
+      <c r="S149" t="n">
+        <v>-5.04</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -9161,6 +9610,9 @@
       <c r="R150" t="n">
         <v>29.19</v>
       </c>
+      <c r="S150" t="n">
+        <v>-0.73</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -9219,6 +9671,9 @@
       <c r="R151" t="n">
         <v>29.19</v>
       </c>
+      <c r="S151" t="n">
+        <v>-0.92</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -9277,6 +9732,9 @@
       <c r="R152" t="n">
         <v>29.19</v>
       </c>
+      <c r="S152" t="n">
+        <v>-2.12</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -9335,6 +9793,9 @@
       <c r="R153" t="n">
         <v>29.19</v>
       </c>
+      <c r="S153" t="n">
+        <v>-2.56</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -9393,6 +9854,9 @@
       <c r="R154" t="n">
         <v>28.26</v>
       </c>
+      <c r="S154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -9451,6 +9915,9 @@
       <c r="R155" t="n">
         <v>28.26</v>
       </c>
+      <c r="S155" t="n">
+        <v>-7.53</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -9509,6 +9976,9 @@
       <c r="R156" t="n">
         <v>28.26</v>
       </c>
+      <c r="S156" t="n">
+        <v>-2.63</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -9567,6 +10037,9 @@
       <c r="R157" t="n">
         <v>28.26</v>
       </c>
+      <c r="S157" t="n">
+        <v>-4.99</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -9625,6 +10098,9 @@
       <c r="R158" t="n">
         <v>28.26</v>
       </c>
+      <c r="S158" t="n">
+        <v>-0.7</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -9683,6 +10159,9 @@
       <c r="R159" t="n">
         <v>28.26</v>
       </c>
+      <c r="S159" t="n">
+        <v>-0.85</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -9741,6 +10220,9 @@
       <c r="R160" t="n">
         <v>28.26</v>
       </c>
+      <c r="S160" t="n">
+        <v>-1.09</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -9799,6 +10281,9 @@
       <c r="R161" t="n">
         <v>28.26</v>
       </c>
+      <c r="S161" t="n">
+        <v>-2.5</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -9857,6 +10342,9 @@
       <c r="R162" t="n">
         <v>27.73</v>
       </c>
+      <c r="S162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -9915,6 +10403,9 @@
       <c r="R163" t="n">
         <v>27.73</v>
       </c>
+      <c r="S163" t="n">
+        <v>-7.98</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -9973,6 +10464,9 @@
       <c r="R164" t="n">
         <v>27.73</v>
       </c>
+      <c r="S164" t="n">
+        <v>-2.93</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -10031,6 +10525,9 @@
       <c r="R165" t="n">
         <v>27.73</v>
       </c>
+      <c r="S165" t="n">
+        <v>-5.35</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -10089,6 +10586,9 @@
       <c r="R166" t="n">
         <v>27.73</v>
       </c>
+      <c r="S166" t="n">
+        <v>-0.83</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -10147,6 +10647,9 @@
       <c r="R167" t="n">
         <v>27.73</v>
       </c>
+      <c r="S167" t="n">
+        <v>-1.2</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -10205,6 +10708,9 @@
       <c r="R168" t="n">
         <v>27.73</v>
       </c>
+      <c r="S168" t="n">
+        <v>-1.9</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -10263,6 +10769,9 @@
       <c r="R169" t="n">
         <v>27.73</v>
       </c>
+      <c r="S169" t="n">
+        <v>-2.7</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -10321,6 +10830,9 @@
       <c r="R170" t="n">
         <v>27.01</v>
       </c>
+      <c r="S170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -10379,6 +10891,9 @@
       <c r="R171" t="n">
         <v>27.01</v>
       </c>
+      <c r="S171" t="n">
+        <v>-8.210000000000001</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -10437,6 +10952,9 @@
       <c r="R172" t="n">
         <v>27.01</v>
       </c>
+      <c r="S172" t="n">
+        <v>-3.08</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -10495,6 +11013,9 @@
       <c r="R173" t="n">
         <v>27.01</v>
       </c>
+      <c r="S173" t="n">
+        <v>-5.52</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -10553,6 +11074,9 @@
       <c r="R174" t="n">
         <v>27.01</v>
       </c>
+      <c r="S174" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -10611,6 +11135,9 @@
       <c r="R175" t="n">
         <v>27.01</v>
       </c>
+      <c r="S175" t="n">
+        <v>-1.36</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -10669,6 +11196,9 @@
       <c r="R176" t="n">
         <v>27.01</v>
       </c>
+      <c r="S176" t="n">
+        <v>-2.39</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -10727,6 +11257,9 @@
       <c r="R177" t="n">
         <v>27.01</v>
       </c>
+      <c r="S177" t="n">
+        <v>-2.84</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -10785,6 +11318,9 @@
       <c r="R178" t="n">
         <v>26.1</v>
       </c>
+      <c r="S178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -10843,6 +11379,9 @@
       <c r="R179" t="n">
         <v>26.1</v>
       </c>
+      <c r="S179" t="n">
+        <v>-8.27</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -10901,6 +11440,9 @@
       <c r="R180" t="n">
         <v>26.1</v>
       </c>
+      <c r="S180" t="n">
+        <v>-3</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -10959,6 +11501,9 @@
       <c r="R181" t="n">
         <v>26.1</v>
       </c>
+      <c r="S181" t="n">
+        <v>-5.48</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -11017,6 +11562,9 @@
       <c r="R182" t="n">
         <v>26.1</v>
       </c>
+      <c r="S182" t="n">
+        <v>-0.98</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -11075,6 +11623,9 @@
       <c r="R183" t="n">
         <v>26.1</v>
       </c>
+      <c r="S183" t="n">
+        <v>-1.36</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -11133,6 +11684,9 @@
       <c r="R184" t="n">
         <v>26.1</v>
       </c>
+      <c r="S184" t="n">
+        <v>-2.19</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -11191,6 +11745,9 @@
       <c r="R185" t="n">
         <v>26.1</v>
       </c>
+      <c r="S185" t="n">
+        <v>-2.73</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -11249,6 +11806,9 @@
       <c r="R186" t="n">
         <v>25.41</v>
       </c>
+      <c r="S186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -11307,6 +11867,9 @@
       <c r="R187" t="n">
         <v>25.41</v>
       </c>
+      <c r="S187" t="n">
+        <v>-8.56</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -11365,6 +11928,9 @@
       <c r="R188" t="n">
         <v>25.41</v>
       </c>
+      <c r="S188" t="n">
+        <v>-3.18</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -11423,6 +11989,9 @@
       <c r="R189" t="n">
         <v>25.41</v>
       </c>
+      <c r="S189" t="n">
+        <v>-5.58</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -11481,6 +12050,9 @@
       <c r="R190" t="n">
         <v>25.41</v>
       </c>
+      <c r="S190" t="n">
+        <v>-0.96</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -11539,6 +12111,9 @@
       <c r="R191" t="n">
         <v>25.41</v>
       </c>
+      <c r="S191" t="n">
+        <v>-1.41</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -11597,6 +12172,9 @@
       <c r="R192" t="n">
         <v>25.41</v>
       </c>
+      <c r="S192" t="n">
+        <v>-2.24</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -11655,6 +12233,9 @@
       <c r="R193" t="n">
         <v>25.41</v>
       </c>
+      <c r="S193" t="n">
+        <v>-3.06</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -11713,6 +12294,9 @@
       <c r="R194" t="n">
         <v>24.59</v>
       </c>
+      <c r="S194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -11771,6 +12355,9 @@
       <c r="R195" t="n">
         <v>24.59</v>
       </c>
+      <c r="S195" t="n">
+        <v>-8.720000000000001</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -11829,6 +12416,9 @@
       <c r="R196" t="n">
         <v>24.59</v>
       </c>
+      <c r="S196" t="n">
+        <v>-3.25</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -11887,6 +12477,9 @@
       <c r="R197" t="n">
         <v>24.59</v>
       </c>
+      <c r="S197" t="n">
+        <v>-5.68</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -11945,6 +12538,9 @@
       <c r="R198" t="n">
         <v>24.59</v>
       </c>
+      <c r="S198" t="n">
+        <v>-1.02</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -12003,6 +12599,9 @@
       <c r="R199" t="n">
         <v>24.59</v>
       </c>
+      <c r="S199" t="n">
+        <v>-1.63</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -12061,6 +12660,9 @@
       <c r="R200" t="n">
         <v>24.59</v>
       </c>
+      <c r="S200" t="n">
+        <v>-2.38</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -12119,6 +12721,9 @@
       <c r="R201" t="n">
         <v>24.59</v>
       </c>
+      <c r="S201" t="n">
+        <v>-3.16</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -12177,6 +12782,9 @@
       <c r="R202" t="n">
         <v>23.74</v>
       </c>
+      <c r="S202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -12235,6 +12843,9 @@
       <c r="R203" t="n">
         <v>23.74</v>
       </c>
+      <c r="S203" t="n">
+        <v>-8.84</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -12293,6 +12904,9 @@
       <c r="R204" t="n">
         <v>23.74</v>
       </c>
+      <c r="S204" t="n">
+        <v>-3.4</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -12351,6 +12965,9 @@
       <c r="R205" t="n">
         <v>23.74</v>
       </c>
+      <c r="S205" t="n">
+        <v>-5.77</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -12409,6 +13026,9 @@
       <c r="R206" t="n">
         <v>23.74</v>
       </c>
+      <c r="S206" t="n">
+        <v>-0.98</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -12467,6 +13087,9 @@
       <c r="R207" t="n">
         <v>23.74</v>
       </c>
+      <c r="S207" t="n">
+        <v>-1.59</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -12525,6 +13148,9 @@
       <c r="R208" t="n">
         <v>23.74</v>
       </c>
+      <c r="S208" t="n">
+        <v>-2.56</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -12583,6 +13209,9 @@
       <c r="R209" t="n">
         <v>23.74</v>
       </c>
+      <c r="S209" t="n">
+        <v>-3.34</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -12641,6 +13270,9 @@
       <c r="R210" t="n">
         <v>22.74</v>
       </c>
+      <c r="S210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -12699,6 +13331,9 @@
       <c r="R211" t="n">
         <v>22.74</v>
       </c>
+      <c r="S211" t="n">
+        <v>-8.82</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -12757,6 +13392,9 @@
       <c r="R212" t="n">
         <v>22.74</v>
       </c>
+      <c r="S212" t="n">
+        <v>-3.39</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -12815,6 +13453,9 @@
       <c r="R213" t="n">
         <v>22.74</v>
       </c>
+      <c r="S213" t="n">
+        <v>-5.81</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -12873,6 +13514,9 @@
       <c r="R214" t="n">
         <v>22.74</v>
       </c>
+      <c r="S214" t="n">
+        <v>-0.83</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -12931,6 +13575,9 @@
       <c r="R215" t="n">
         <v>22.74</v>
       </c>
+      <c r="S215" t="n">
+        <v>-1.56</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -12989,6 +13636,9 @@
       <c r="R216" t="n">
         <v>22.74</v>
       </c>
+      <c r="S216" t="n">
+        <v>-2.31</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -13047,6 +13697,9 @@
       <c r="R217" t="n">
         <v>22.74</v>
       </c>
+      <c r="S217" t="n">
+        <v>-3.27</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -13105,6 +13758,9 @@
       <c r="R218" t="n">
         <v>21.76</v>
       </c>
+      <c r="S218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -13163,6 +13819,9 @@
       <c r="R219" t="n">
         <v>21.76</v>
       </c>
+      <c r="S219" t="n">
+        <v>-8.81</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -13221,6 +13880,9 @@
       <c r="R220" t="n">
         <v>21.76</v>
       </c>
+      <c r="S220" t="n">
+        <v>-3.47</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -13279,6 +13941,9 @@
       <c r="R221" t="n">
         <v>21.76</v>
       </c>
+      <c r="S221" t="n">
+        <v>-5.77</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -13337,6 +14002,9 @@
       <c r="R222" t="n">
         <v>21.76</v>
       </c>
+      <c r="S222" t="n">
+        <v>-0.83</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -13395,6 +14063,9 @@
       <c r="R223" t="n">
         <v>21.76</v>
       </c>
+      <c r="S223" t="n">
+        <v>-1.56</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -13453,6 +14124,9 @@
       <c r="R224" t="n">
         <v>21.76</v>
       </c>
+      <c r="S224" t="n">
+        <v>-2.48</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -13511,6 +14185,9 @@
       <c r="R225" t="n">
         <v>21.76</v>
       </c>
+      <c r="S225" t="n">
+        <v>-3.18</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -13569,6 +14246,9 @@
       <c r="R226" t="n">
         <v>20.73</v>
       </c>
+      <c r="S226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -13627,6 +14307,9 @@
       <c r="R227" t="n">
         <v>20.73</v>
       </c>
+      <c r="S227" t="n">
+        <v>-8.77</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -13685,6 +14368,9 @@
       <c r="R228" t="n">
         <v>20.73</v>
       </c>
+      <c r="S228" t="n">
+        <v>-3.43</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -13743,6 +14429,9 @@
       <c r="R229" t="n">
         <v>20.73</v>
       </c>
+      <c r="S229" t="n">
+        <v>-5.74</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -13801,6 +14490,9 @@
       <c r="R230" t="n">
         <v>20.73</v>
       </c>
+      <c r="S230" t="n">
+        <v>-0.88</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -13859,6 +14551,9 @@
       <c r="R231" t="n">
         <v>20.73</v>
       </c>
+      <c r="S231" t="n">
+        <v>-1.58</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -13917,6 +14612,9 @@
       <c r="R232" t="n">
         <v>20.73</v>
       </c>
+      <c r="S232" t="n">
+        <v>-3.13</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -13975,6 +14673,9 @@
       <c r="R233" t="n">
         <v>20.73</v>
       </c>
+      <c r="S233" t="n">
+        <v>-3.07</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -14033,6 +14734,9 @@
       <c r="R234" t="n">
         <v>19.7</v>
       </c>
+      <c r="S234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -14091,6 +14795,9 @@
       <c r="R235" t="n">
         <v>19.7</v>
       </c>
+      <c r="S235" t="n">
+        <v>-8.710000000000001</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -14149,6 +14856,9 @@
       <c r="R236" t="n">
         <v>19.7</v>
       </c>
+      <c r="S236" t="n">
+        <v>-3.37</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -14207,6 +14917,9 @@
       <c r="R237" t="n">
         <v>19.7</v>
       </c>
+      <c r="S237" t="n">
+        <v>-5.59</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -14265,6 +14978,9 @@
       <c r="R238" t="n">
         <v>19.7</v>
       </c>
+      <c r="S238" t="n">
+        <v>-0.83</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -14323,6 +15039,9 @@
       <c r="R239" t="n">
         <v>19.7</v>
       </c>
+      <c r="S239" t="n">
+        <v>-1.56</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -14381,6 +15100,9 @@
       <c r="R240" t="n">
         <v>19.7</v>
       </c>
+      <c r="S240" t="n">
+        <v>-1.85</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -14439,6 +15161,9 @@
       <c r="R241" t="n">
         <v>19.7</v>
       </c>
+      <c r="S241" t="n">
+        <v>-2.9</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -14497,6 +15222,9 @@
       <c r="R242" t="n">
         <v>18.77</v>
       </c>
+      <c r="S242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -14555,6 +15283,9 @@
       <c r="R243" t="n">
         <v>18.77</v>
       </c>
+      <c r="S243" t="n">
+        <v>-8.779999999999999</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -14613,6 +15344,9 @@
       <c r="R244" t="n">
         <v>18.77</v>
       </c>
+      <c r="S244" t="n">
+        <v>-3.41</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -14671,6 +15405,9 @@
       <c r="R245" t="n">
         <v>18.77</v>
       </c>
+      <c r="S245" t="n">
+        <v>-5.67</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -14729,6 +15466,9 @@
       <c r="R246" t="n">
         <v>18.77</v>
       </c>
+      <c r="S246" t="n">
+        <v>-0.95</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -14787,6 +15527,9 @@
       <c r="R247" t="n">
         <v>18.77</v>
       </c>
+      <c r="S247" t="n">
+        <v>-1.69</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -14845,6 +15588,9 @@
       <c r="R248" t="n">
         <v>18.77</v>
       </c>
+      <c r="S248" t="n">
+        <v>-1.09</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -14903,6 +15649,9 @@
       <c r="R249" t="n">
         <v>18.77</v>
       </c>
+      <c r="S249" t="n">
+        <v>-3</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -14961,6 +15710,9 @@
       <c r="R250" t="n">
         <v>17.89</v>
       </c>
+      <c r="S250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -15019,6 +15771,9 @@
       <c r="R251" t="n">
         <v>17.89</v>
       </c>
+      <c r="S251" t="n">
+        <v>-8.890000000000001</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -15077,6 +15832,9 @@
       <c r="R252" t="n">
         <v>17.89</v>
       </c>
+      <c r="S252" t="n">
+        <v>-3.47</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -15135,6 +15893,9 @@
       <c r="R253" t="n">
         <v>17.89</v>
       </c>
+      <c r="S253" t="n">
+        <v>-5.7</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -15193,6 +15954,9 @@
       <c r="R254" t="n">
         <v>17.89</v>
       </c>
+      <c r="S254" t="n">
+        <v>-1.05</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -15251,6 +16015,9 @@
       <c r="R255" t="n">
         <v>17.89</v>
       </c>
+      <c r="S255" t="n">
+        <v>-1.73</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -15309,6 +16076,9 @@
       <c r="R256" t="n">
         <v>17.89</v>
       </c>
+      <c r="S256" t="n">
+        <v>-1.39</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -15367,6 +16137,9 @@
       <c r="R257" t="n">
         <v>17.89</v>
       </c>
+      <c r="S257" t="n">
+        <v>-3.14</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -15425,6 +16198,9 @@
       <c r="R258" t="n">
         <v>16.97</v>
       </c>
+      <c r="S258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -15483,6 +16259,9 @@
       <c r="R259" t="n">
         <v>16.97</v>
       </c>
+      <c r="S259" t="n">
+        <v>-8.960000000000001</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -15541,6 +16320,9 @@
       <c r="R260" t="n">
         <v>16.97</v>
       </c>
+      <c r="S260" t="n">
+        <v>-3.57</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -15599,6 +16381,9 @@
       <c r="R261" t="n">
         <v>16.97</v>
       </c>
+      <c r="S261" t="n">
+        <v>-5.79</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -15657,6 +16442,9 @@
       <c r="R262" t="n">
         <v>16.97</v>
       </c>
+      <c r="S262" t="n">
+        <v>-0.89</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -15715,6 +16503,9 @@
       <c r="R263" t="n">
         <v>16.97</v>
       </c>
+      <c r="S263" t="n">
+        <v>-1.68</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -15773,6 +16564,9 @@
       <c r="R264" t="n">
         <v>16.97</v>
       </c>
+      <c r="S264" t="n">
+        <v>-1.27</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -15831,6 +16625,9 @@
       <c r="R265" t="n">
         <v>16.97</v>
       </c>
+      <c r="S265" t="n">
+        <v>-3.29</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -15889,6 +16686,9 @@
       <c r="R266" t="n">
         <v>15.98</v>
       </c>
+      <c r="S266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -15947,6 +16747,9 @@
       <c r="R267" t="n">
         <v>15.98</v>
       </c>
+      <c r="S267" t="n">
+        <v>-8.949999999999999</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -16005,6 +16808,9 @@
       <c r="R268" t="n">
         <v>15.98</v>
       </c>
+      <c r="S268" t="n">
+        <v>-3.6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -16063,6 +16869,9 @@
       <c r="R269" t="n">
         <v>15.98</v>
       </c>
+      <c r="S269" t="n">
+        <v>-5.76</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -16121,6 +16930,9 @@
       <c r="R270" t="n">
         <v>15.98</v>
       </c>
+      <c r="S270" t="n">
+        <v>-0.91</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -16179,6 +16991,9 @@
       <c r="R271" t="n">
         <v>15.98</v>
       </c>
+      <c r="S271" t="n">
+        <v>-1.64</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -16237,6 +17052,9 @@
       <c r="R272" t="n">
         <v>15.98</v>
       </c>
+      <c r="S272" t="n">
+        <v>-1.4</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -16295,6 +17113,9 @@
       <c r="R273" t="n">
         <v>15.98</v>
       </c>
+      <c r="S273" t="n">
+        <v>-3.26</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -16353,6 +17174,9 @@
       <c r="R274" t="n">
         <v>14.92</v>
       </c>
+      <c r="S274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -16411,6 +17235,9 @@
       <c r="R275" t="n">
         <v>14.92</v>
       </c>
+      <c r="S275" t="n">
+        <v>-8.970000000000001</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -16469,6 +17296,9 @@
       <c r="R276" t="n">
         <v>14.92</v>
       </c>
+      <c r="S276" t="n">
+        <v>-3.57</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -16527,6 +17357,9 @@
       <c r="R277" t="n">
         <v>14.92</v>
       </c>
+      <c r="S277" t="n">
+        <v>-5.65</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -16585,6 +17418,9 @@
       <c r="R278" t="n">
         <v>14.92</v>
       </c>
+      <c r="S278" t="n">
+        <v>-0.87</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -16643,6 +17479,9 @@
       <c r="R279" t="n">
         <v>14.92</v>
       </c>
+      <c r="S279" t="n">
+        <v>-1.57</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -16701,6 +17540,9 @@
       <c r="R280" t="n">
         <v>14.92</v>
       </c>
+      <c r="S280" t="n">
+        <v>-1.47</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -16759,6 +17601,9 @@
       <c r="R281" t="n">
         <v>14.92</v>
       </c>
+      <c r="S281" t="n">
+        <v>-3.16</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -16817,6 +17662,9 @@
       <c r="R282" t="n">
         <v>13.8</v>
       </c>
+      <c r="S282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -16875,6 +17723,9 @@
       <c r="R283" t="n">
         <v>13.8</v>
       </c>
+      <c r="S283" t="n">
+        <v>-9.130000000000001</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -16933,6 +17784,9 @@
       <c r="R284" t="n">
         <v>13.8</v>
       </c>
+      <c r="S284" t="n">
+        <v>-3.43</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -16991,6 +17845,9 @@
       <c r="R285" t="n">
         <v>13.8</v>
       </c>
+      <c r="S285" t="n">
+        <v>-5.47</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -17049,6 +17906,9 @@
       <c r="R286" t="n">
         <v>13.8</v>
       </c>
+      <c r="S286" t="n">
+        <v>-0.8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -17107,6 +17967,9 @@
       <c r="R287" t="n">
         <v>13.8</v>
       </c>
+      <c r="S287" t="n">
+        <v>-1.48</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -17165,6 +18028,9 @@
       <c r="R288" t="n">
         <v>13.8</v>
       </c>
+      <c r="S288" t="n">
+        <v>-1.33</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -17223,6 +18089,9 @@
       <c r="R289" t="n">
         <v>13.8</v>
       </c>
+      <c r="S289" t="n">
+        <v>-2.8</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -17281,6 +18150,9 @@
       <c r="R290" t="n">
         <v>12.89</v>
       </c>
+      <c r="S290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -17339,6 +18211,9 @@
       <c r="R291" t="n">
         <v>12.89</v>
       </c>
+      <c r="S291" t="n">
+        <v>-9.23</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -17397,6 +18272,9 @@
       <c r="R292" t="n">
         <v>12.89</v>
       </c>
+      <c r="S292" t="n">
+        <v>-3.44</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -17455,6 +18333,9 @@
       <c r="R293" t="n">
         <v>12.89</v>
       </c>
+      <c r="S293" t="n">
+        <v>-5.49</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -17513,6 +18394,9 @@
       <c r="R294" t="n">
         <v>12.89</v>
       </c>
+      <c r="S294" t="n">
+        <v>-0.97</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -17571,6 +18455,9 @@
       <c r="R295" t="n">
         <v>12.89</v>
       </c>
+      <c r="S295" t="n">
+        <v>-1.54</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -17629,6 +18516,9 @@
       <c r="R296" t="n">
         <v>12.89</v>
       </c>
+      <c r="S296" t="n">
+        <v>-1.47</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -17687,6 +18577,9 @@
       <c r="R297" t="n">
         <v>12.89</v>
       </c>
+      <c r="S297" t="n">
+        <v>-2.86</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -17745,6 +18638,9 @@
       <c r="R298" t="n">
         <v>11.97</v>
       </c>
+      <c r="S298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -17803,6 +18699,9 @@
       <c r="R299" t="n">
         <v>11.97</v>
       </c>
+      <c r="S299" t="n">
+        <v>-9.300000000000001</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -17861,6 +18760,9 @@
       <c r="R300" t="n">
         <v>11.97</v>
       </c>
+      <c r="S300" t="n">
+        <v>-3.4</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -17919,6 +18821,9 @@
       <c r="R301" t="n">
         <v>11.97</v>
       </c>
+      <c r="S301" t="n">
+        <v>-5.51</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -17977,6 +18882,9 @@
       <c r="R302" t="n">
         <v>11.97</v>
       </c>
+      <c r="S302" t="n">
+        <v>-1.06</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -18035,6 +18943,9 @@
       <c r="R303" t="n">
         <v>11.97</v>
       </c>
+      <c r="S303" t="n">
+        <v>-1.87</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -18093,6 +19004,9 @@
       <c r="R304" t="n">
         <v>11.97</v>
       </c>
+      <c r="S304" t="n">
+        <v>-1.5</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -18151,6 +19065,9 @@
       <c r="R305" t="n">
         <v>11.97</v>
       </c>
+      <c r="S305" t="n">
+        <v>-2.81</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -18209,6 +19126,9 @@
       <c r="R306" t="n">
         <v>11.04</v>
       </c>
+      <c r="S306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -18267,6 +19187,9 @@
       <c r="R307" t="n">
         <v>11.04</v>
       </c>
+      <c r="S307" t="n">
+        <v>-9.369999999999999</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -18325,6 +19248,9 @@
       <c r="R308" t="n">
         <v>11.04</v>
       </c>
+      <c r="S308" t="n">
+        <v>-3.41</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -18383,6 +19309,9 @@
       <c r="R309" t="n">
         <v>11.04</v>
       </c>
+      <c r="S309" t="n">
+        <v>-5.5</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -18441,6 +19370,9 @@
       <c r="R310" t="n">
         <v>11.04</v>
       </c>
+      <c r="S310" t="n">
+        <v>-1.03</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -18499,6 +19431,9 @@
       <c r="R311" t="n">
         <v>11.04</v>
       </c>
+      <c r="S311" t="n">
+        <v>-2.91</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -18557,6 +19492,9 @@
       <c r="R312" t="n">
         <v>11.04</v>
       </c>
+      <c r="S312" t="n">
+        <v>-1.53</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -18615,6 +19553,9 @@
       <c r="R313" t="n">
         <v>11.04</v>
       </c>
+      <c r="S313" t="n">
+        <v>-3</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -18673,6 +19614,9 @@
       <c r="R314" t="n">
         <v>10.15</v>
       </c>
+      <c r="S314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -18731,6 +19675,9 @@
       <c r="R315" t="n">
         <v>10.15</v>
       </c>
+      <c r="S315" t="n">
+        <v>-9.470000000000001</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -18789,6 +19736,9 @@
       <c r="R316" t="n">
         <v>10.15</v>
       </c>
+      <c r="S316" t="n">
+        <v>-3.45</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -18847,6 +19797,9 @@
       <c r="R317" t="n">
         <v>10.15</v>
       </c>
+      <c r="S317" t="n">
+        <v>-5.61</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -18905,6 +19858,9 @@
       <c r="R318" t="n">
         <v>10.15</v>
       </c>
+      <c r="S318" t="n">
+        <v>-0.97</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -18963,6 +19919,9 @@
       <c r="R319" t="n">
         <v>10.15</v>
       </c>
+      <c r="S319" t="n">
+        <v>-3</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -19021,6 +19980,9 @@
       <c r="R320" t="n">
         <v>10.15</v>
       </c>
+      <c r="S320" t="n">
+        <v>-1.53</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -19079,6 +20041,9 @@
       <c r="R321" t="n">
         <v>10.15</v>
       </c>
+      <c r="S321" t="n">
+        <v>-3.09</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -19137,6 +20102,9 @@
       <c r="R322" t="n">
         <v>9.1</v>
       </c>
+      <c r="S322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -19195,6 +20163,9 @@
       <c r="R323" t="n">
         <v>9.1</v>
       </c>
+      <c r="S323" t="n">
+        <v>-9.41</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -19253,6 +20224,9 @@
       <c r="R324" t="n">
         <v>9.1</v>
       </c>
+      <c r="S324" t="n">
+        <v>-3.35</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -19311,6 +20285,9 @@
       <c r="R325" t="n">
         <v>9.1</v>
       </c>
+      <c r="S325" t="n">
+        <v>-5.54</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -19369,6 +20346,9 @@
       <c r="R326" t="n">
         <v>9.1</v>
       </c>
+      <c r="S326" t="n">
+        <v>-0.91</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -19427,6 +20407,9 @@
       <c r="R327" t="n">
         <v>9.1</v>
       </c>
+      <c r="S327" t="n">
+        <v>-2.64</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -19485,6 +20468,9 @@
       <c r="R328" t="n">
         <v>9.1</v>
       </c>
+      <c r="S328" t="n">
+        <v>-1.51</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -19543,6 +20529,9 @@
       <c r="R329" t="n">
         <v>9.1</v>
       </c>
+      <c r="S329" t="n">
+        <v>-3.11</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -19601,6 +20590,9 @@
       <c r="R330" t="n">
         <v>8</v>
       </c>
+      <c r="S330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -19659,6 +20651,9 @@
       <c r="R331" t="n">
         <v>8</v>
       </c>
+      <c r="S331" t="n">
+        <v>-9.279999999999999</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -19717,6 +20712,9 @@
       <c r="R332" t="n">
         <v>8</v>
       </c>
+      <c r="S332" t="n">
+        <v>-3.2</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -19775,6 +20773,9 @@
       <c r="R333" t="n">
         <v>8</v>
       </c>
+      <c r="S333" t="n">
+        <v>-5.45</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -19833,6 +20834,9 @@
       <c r="R334" t="n">
         <v>8</v>
       </c>
+      <c r="S334" t="n">
+        <v>-0.78</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -19891,6 +20895,9 @@
       <c r="R335" t="n">
         <v>8</v>
       </c>
+      <c r="S335" t="n">
+        <v>-1.56</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -19949,6 +20956,9 @@
       <c r="R336" t="n">
         <v>8</v>
       </c>
+      <c r="S336" t="n">
+        <v>-1.51</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -20007,6 +21017,9 @@
       <c r="R337" t="n">
         <v>8</v>
       </c>
+      <c r="S337" t="n">
+        <v>-3</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -20065,6 +21078,9 @@
       <c r="R338" t="n">
         <v>6.96</v>
       </c>
+      <c r="S338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -20123,6 +21139,9 @@
       <c r="R339" t="n">
         <v>6.96</v>
       </c>
+      <c r="S339" t="n">
+        <v>-9.199999999999999</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -20181,6 +21200,9 @@
       <c r="R340" t="n">
         <v>6.96</v>
       </c>
+      <c r="S340" t="n">
+        <v>-3.12</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -20239,6 +21261,9 @@
       <c r="R341" t="n">
         <v>6.96</v>
       </c>
+      <c r="S341" t="n">
+        <v>-5.33</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -20297,6 +21322,9 @@
       <c r="R342" t="n">
         <v>6.96</v>
       </c>
+      <c r="S342" t="n">
+        <v>-0.76</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -20355,6 +21383,9 @@
       <c r="R343" t="n">
         <v>6.96</v>
       </c>
+      <c r="S343" t="n">
+        <v>-1.47</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -20413,6 +21444,9 @@
       <c r="R344" t="n">
         <v>6.96</v>
       </c>
+      <c r="S344" t="n">
+        <v>-1.55</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -20471,6 +21505,9 @@
       <c r="R345" t="n">
         <v>6.96</v>
       </c>
+      <c r="S345" t="n">
+        <v>-2.84</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -20529,6 +21566,9 @@
       <c r="R346" t="n">
         <v>5.94</v>
       </c>
+      <c r="S346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -20587,6 +21627,9 @@
       <c r="R347" t="n">
         <v>5.94</v>
       </c>
+      <c r="S347" t="n">
+        <v>-9.140000000000001</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -20645,6 +21688,9 @@
       <c r="R348" t="n">
         <v>5.94</v>
       </c>
+      <c r="S348" t="n">
+        <v>-3.04</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -20703,6 +21749,9 @@
       <c r="R349" t="n">
         <v>5.94</v>
       </c>
+      <c r="S349" t="n">
+        <v>-5.23</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -20761,6 +21810,9 @@
       <c r="R350" t="n">
         <v>5.94</v>
       </c>
+      <c r="S350" t="n">
+        <v>-0.75</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -20819,6 +21871,9 @@
       <c r="R351" t="n">
         <v>5.94</v>
       </c>
+      <c r="S351" t="n">
+        <v>-1.28</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -20877,6 +21932,9 @@
       <c r="R352" t="n">
         <v>5.94</v>
       </c>
+      <c r="S352" t="n">
+        <v>-1.54</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -20935,6 +21993,9 @@
       <c r="R353" t="n">
         <v>5.94</v>
       </c>
+      <c r="S353" t="n">
+        <v>-2.77</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -20993,6 +22054,9 @@
       <c r="R354" t="n">
         <v>4.95</v>
       </c>
+      <c r="S354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -21051,6 +22115,9 @@
       <c r="R355" t="n">
         <v>4.95</v>
       </c>
+      <c r="S355" t="n">
+        <v>-9.09</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -21109,6 +22176,9 @@
       <c r="R356" t="n">
         <v>4.95</v>
       </c>
+      <c r="S356" t="n">
+        <v>-2.93</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -21167,6 +22237,9 @@
       <c r="R357" t="n">
         <v>4.95</v>
       </c>
+      <c r="S357" t="n">
+        <v>-5.1</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -21225,6 +22298,9 @@
       <c r="R358" t="n">
         <v>4.95</v>
       </c>
+      <c r="S358" t="n">
+        <v>-0.83</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -21283,6 +22359,9 @@
       <c r="R359" t="n">
         <v>4.95</v>
       </c>
+      <c r="S359" t="n">
+        <v>-1.27</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -21341,6 +22420,9 @@
       <c r="R360" t="n">
         <v>4.95</v>
       </c>
+      <c r="S360" t="n">
+        <v>-1.45</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -21399,6 +22481,9 @@
       <c r="R361" t="n">
         <v>4.95</v>
       </c>
+      <c r="S361" t="n">
+        <v>-2.65</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -21457,6 +22542,9 @@
       <c r="R362" t="n">
         <v>4.22</v>
       </c>
+      <c r="S362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -21515,6 +22603,9 @@
       <c r="R363" t="n">
         <v>4.22</v>
       </c>
+      <c r="S363" t="n">
+        <v>-9.15</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -21573,6 +22664,9 @@
       <c r="R364" t="n">
         <v>4.22</v>
       </c>
+      <c r="S364" t="n">
+        <v>-3.19</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -21631,6 +22725,9 @@
       <c r="R365" t="n">
         <v>4.22</v>
       </c>
+      <c r="S365" t="n">
+        <v>-5.06</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -21689,6 +22786,9 @@
       <c r="R366" t="n">
         <v>4.22</v>
       </c>
+      <c r="S366" t="n">
+        <v>-0.79</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -21747,6 +22847,9 @@
       <c r="R367" t="n">
         <v>4.22</v>
       </c>
+      <c r="S367" t="n">
+        <v>-1.34</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -21805,6 +22908,9 @@
       <c r="R368" t="n">
         <v>4.22</v>
       </c>
+      <c r="S368" t="n">
+        <v>-1.69</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -21863,6 +22969,9 @@
       <c r="R369" t="n">
         <v>4.22</v>
       </c>
+      <c r="S369" t="n">
+        <v>-2.84</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -21921,6 +23030,9 @@
       <c r="R370" t="n">
         <v>3.31</v>
       </c>
+      <c r="S370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -21979,6 +23091,9 @@
       <c r="R371" t="n">
         <v>3.31</v>
       </c>
+      <c r="S371" t="n">
+        <v>-3.24</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -22037,6 +23152,9 @@
       <c r="R372" t="n">
         <v>3.31</v>
       </c>
+      <c r="S372" t="n">
+        <v>-5.07</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -22095,6 +23213,9 @@
       <c r="R373" t="n">
         <v>3.31</v>
       </c>
+      <c r="S373" t="n">
+        <v>-0.89</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -22153,6 +23274,9 @@
       <c r="R374" t="n">
         <v>3.31</v>
       </c>
+      <c r="S374" t="n">
+        <v>-1.36</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -22211,6 +23335,9 @@
       <c r="R375" t="n">
         <v>3.31</v>
       </c>
+      <c r="S375" t="n">
+        <v>-1.65</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -22269,6 +23396,9 @@
       <c r="R376" t="n">
         <v>3.31</v>
       </c>
+      <c r="S376" t="n">
+        <v>-2.8</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -22327,6 +23457,9 @@
       <c r="R377" t="n">
         <v>2.37</v>
       </c>
+      <c r="S377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -22385,6 +23518,9 @@
       <c r="R378" t="n">
         <v>2.37</v>
       </c>
+      <c r="S378" t="n">
+        <v>-3.26</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -22443,6 +23579,9 @@
       <c r="R379" t="n">
         <v>2.37</v>
       </c>
+      <c r="S379" t="n">
+        <v>-4.74</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -22501,6 +23640,9 @@
       <c r="R380" t="n">
         <v>2.37</v>
       </c>
+      <c r="S380" t="n">
+        <v>-0.75</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -22559,6 +23701,9 @@
       <c r="R381" t="n">
         <v>2.37</v>
       </c>
+      <c r="S381" t="n">
+        <v>-1.38</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -22617,6 +23762,9 @@
       <c r="R382" t="n">
         <v>2.37</v>
       </c>
+      <c r="S382" t="n">
+        <v>-1.66</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -22675,6 +23823,9 @@
       <c r="R383" t="n">
         <v>1.3</v>
       </c>
+      <c r="S383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -22733,6 +23884,9 @@
       <c r="R384" t="n">
         <v>1.3</v>
       </c>
+      <c r="S384" t="n">
+        <v>-3.21</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -22791,6 +23945,9 @@
       <c r="R385" t="n">
         <v>1.3</v>
       </c>
+      <c r="S385" t="n">
+        <v>-4.39</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -22849,6 +24006,9 @@
       <c r="R386" t="n">
         <v>1.3</v>
       </c>
+      <c r="S386" t="n">
+        <v>-0.62</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -22907,6 +24067,9 @@
       <c r="R387" t="n">
         <v>1.3</v>
       </c>
+      <c r="S387" t="n">
+        <v>-1.2</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -22965,6 +24128,9 @@
       <c r="R388" t="n">
         <v>0.25</v>
       </c>
+      <c r="S388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -23023,6 +24189,9 @@
       <c r="R389" t="n">
         <v>0.25</v>
       </c>
+      <c r="S389" t="n">
+        <v>-3.09</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -23081,6 +24250,9 @@
       <c r="R390" t="n">
         <v>0.25</v>
       </c>
+      <c r="S390" t="n">
+        <v>-3.76</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -23139,6 +24311,9 @@
       <c r="R391" t="n">
         <v>0.25</v>
       </c>
+      <c r="S391" t="n">
+        <v>-0.6</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -23197,6 +24372,9 @@
       <c r="R392" t="n">
         <v>0.25</v>
       </c>
+      <c r="S392" t="n">
+        <v>-1.01</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -23255,6 +24433,9 @@
       <c r="R393" t="n">
         <v>-0.74</v>
       </c>
+      <c r="S393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -23313,6 +24494,9 @@
       <c r="R394" t="n">
         <v>-0.74</v>
       </c>
+      <c r="S394" t="n">
+        <v>-2.99</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -23371,6 +24555,9 @@
       <c r="R395" t="n">
         <v>-0.74</v>
       </c>
+      <c r="S395" t="n">
+        <v>-3.47</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -23429,6 +24616,9 @@
       <c r="R396" t="n">
         <v>-0.74</v>
       </c>
+      <c r="S396" t="n">
+        <v>-0.51</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -23487,6 +24677,9 @@
       <c r="R397" t="n">
         <v>-0.74</v>
       </c>
+      <c r="S397" t="n">
+        <v>-0.98</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -23545,6 +24738,9 @@
       <c r="R398" t="n">
         <v>-1.69</v>
       </c>
+      <c r="S398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -23603,6 +24799,9 @@
       <c r="R399" t="n">
         <v>-1.69</v>
       </c>
+      <c r="S399" t="n">
+        <v>-2.35</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -23661,6 +24860,9 @@
       <c r="R400" t="n">
         <v>-1.69</v>
       </c>
+      <c r="S400" t="n">
+        <v>-0.52</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -23719,6 +24921,9 @@
       <c r="R401" t="n">
         <v>-1.69</v>
       </c>
+      <c r="S401" t="n">
+        <v>-0.76</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -23777,6 +24982,9 @@
       <c r="R402" t="n">
         <v>-2.51</v>
       </c>
+      <c r="S402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -23835,6 +25043,9 @@
       <c r="R403" t="n">
         <v>-2.51</v>
       </c>
+      <c r="S403" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -23893,6 +25104,9 @@
       <c r="R404" t="n">
         <v>-2.51</v>
       </c>
+      <c r="S404" t="n">
+        <v>-0.63</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -23950,6 +25164,9 @@
       </c>
       <c r="R405" t="n">
         <v>-3.17</v>
+      </c>
+      <c r="S405" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
